--- a/uploads/sample2.xlsx
+++ b/uploads/sample2.xlsx
@@ -8,16 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\utility\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9FB154-E5C0-4BBC-A352-A13A672B5D22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD5CECC-5E05-435B-B6E7-FBD35D160675}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2642F932-17CA-4DBC-B3CF-B95656D4E6D6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="195">
   <si>
     <t>SrNo</t>
   </si>
@@ -204,9 +201,6 @@
   </si>
   <si>
     <t>CPI</t>
-  </si>
-  <si>
-    <t>Int</t>
   </si>
   <si>
     <t>End</t>
@@ -622,6 +616,12 @@
   <si>
     <t xml:space="preserve"> IT1001</t>
   </si>
+  <si>
+    <t>Remarks</t>
+  </si>
+  <si>
+    <t>AU</t>
+  </si>
 </sst>
 </file>
 
@@ -759,6 +759,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -766,9 +769,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -786,231 +786,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Withdrawal"/>
-      <sheetName val="I sem"/>
-      <sheetName val="II sem"/>
-      <sheetName val="III sem"/>
-      <sheetName val="IV Sem"/>
-      <sheetName val="V sem"/>
-      <sheetName val="VI sem"/>
-      <sheetName val="Summer"/>
-      <sheetName val="VII Sem"/>
-      <sheetName val="VIII SEM"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
-        <row r="6">
-          <cell r="B6" t="str">
-            <v>20BCSI01</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>20BCS249</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>20BCS010</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>20BCS151</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10" t="str">
-            <v>20BCS015</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11" t="str">
-            <v>20BCS197</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12" t="str">
-            <v>20BCS094</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13" t="str">
-            <v>20BCS205</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14" t="str">
-            <v>20BCS075</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15" t="str">
-            <v>20BCS043</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16" t="str">
-            <v>20BCS100</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17" t="str">
-            <v>20BCS016</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18" t="str">
-            <v>20BCS006</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19" t="str">
-            <v>20BCS080</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20" t="str">
-            <v>20BEC022</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21" t="str">
-            <v>20BEC018</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22" t="str">
-            <v>20BCS165</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23" t="str">
-            <v>20BCS001</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24" t="str">
-            <v>20BCS097</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25" t="str">
-            <v>20BCS073</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26" t="str">
-            <v>20BCS185</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27" t="str">
-            <v>20BCS170</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28" t="str">
-            <v>20BCS145</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29" t="str">
-            <v>20BCS211</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30" t="str">
-            <v>20BCS131</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31" t="str">
-            <v>20BCS241</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32" t="str">
-            <v>20BEC092</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33" t="str">
-            <v>20BCS137</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34" t="str">
-            <v>20BCS081</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35" t="str">
-            <v>20BCS056</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36" t="str">
-            <v>20BCS036</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37" t="str">
-            <v>20BCS008</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38" t="str">
-            <v>20BCS169</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>20BCS021</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40" t="str">
-            <v>20BCS035</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41" t="str">
-            <v>20BCS017</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42" t="str">
-            <v>20BCS130</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43" t="str">
-            <v>20BCS023</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1332,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C10A6C-DC0C-4BBC-BA24-B5185F952067}">
   <dimension ref="A1:IS43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="IE1" workbookViewId="0">
-      <selection activeCell="IT1" sqref="IT1:JD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="HX1" workbookViewId="0">
+      <selection activeCell="IS1" sqref="IS1:IS1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1354,349 +1129,349 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16" t="s">
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="16" t="s">
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="T1" s="16"/>
-      <c r="U1" s="16"/>
-      <c r="V1" s="16"/>
-      <c r="W1" s="16"/>
-      <c r="X1" s="16" t="s">
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="Y1" s="16"/>
-      <c r="Z1" s="16"/>
-      <c r="AA1" s="16"/>
-      <c r="AB1" s="16"/>
-      <c r="AC1" s="16" t="s">
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AD1" s="16"/>
-      <c r="AE1" s="16"/>
-      <c r="AF1" s="16"/>
-      <c r="AG1" s="16"/>
-      <c r="AH1" s="16" t="s">
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
+      <c r="AF1" s="13"/>
+      <c r="AG1" s="13"/>
+      <c r="AH1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AI1" s="16"/>
-      <c r="AJ1" s="16"/>
-      <c r="AK1" s="16"/>
-      <c r="AL1" s="16"/>
-      <c r="AM1" s="16" t="s">
+      <c r="AI1" s="13"/>
+      <c r="AJ1" s="13"/>
+      <c r="AK1" s="13"/>
+      <c r="AL1" s="13"/>
+      <c r="AM1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AN1" s="16"/>
-      <c r="AO1" s="16"/>
-      <c r="AP1" s="16"/>
-      <c r="AQ1" s="16"/>
-      <c r="AR1" s="16" t="s">
+      <c r="AN1" s="13"/>
+      <c r="AO1" s="13"/>
+      <c r="AP1" s="13"/>
+      <c r="AQ1" s="13"/>
+      <c r="AR1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AS1" s="16"/>
-      <c r="AT1" s="16"/>
-      <c r="AU1" s="16"/>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="16" t="s">
+      <c r="AS1" s="13"/>
+      <c r="AT1" s="13"/>
+      <c r="AU1" s="13"/>
+      <c r="AV1" s="13"/>
+      <c r="AW1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="AX1" s="16"/>
-      <c r="AY1" s="16"/>
-      <c r="AZ1" s="16"/>
-      <c r="BA1" s="16"/>
-      <c r="BB1" s="16" t="s">
+      <c r="AX1" s="13"/>
+      <c r="AY1" s="13"/>
+      <c r="AZ1" s="13"/>
+      <c r="BA1" s="13"/>
+      <c r="BB1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="BC1" s="16"/>
-      <c r="BD1" s="16"/>
-      <c r="BE1" s="16"/>
-      <c r="BF1" s="16"/>
-      <c r="BG1" s="16" t="s">
+      <c r="BC1" s="13"/>
+      <c r="BD1" s="13"/>
+      <c r="BE1" s="13"/>
+      <c r="BF1" s="13"/>
+      <c r="BG1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="BH1" s="16"/>
-      <c r="BI1" s="16"/>
-      <c r="BJ1" s="16"/>
-      <c r="BK1" s="16"/>
-      <c r="BL1" s="16" t="s">
+      <c r="BH1" s="13"/>
+      <c r="BI1" s="13"/>
+      <c r="BJ1" s="13"/>
+      <c r="BK1" s="13"/>
+      <c r="BL1" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="BM1" s="16"/>
-      <c r="BN1" s="16"/>
-      <c r="BO1" s="16"/>
-      <c r="BP1" s="16"/>
-      <c r="BQ1" s="16" t="s">
+      <c r="BM1" s="13"/>
+      <c r="BN1" s="13"/>
+      <c r="BO1" s="13"/>
+      <c r="BP1" s="13"/>
+      <c r="BQ1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="BR1" s="16"/>
-      <c r="BS1" s="16"/>
-      <c r="BT1" s="16"/>
-      <c r="BU1" s="16"/>
-      <c r="BV1" s="16" t="s">
+      <c r="BR1" s="13"/>
+      <c r="BS1" s="13"/>
+      <c r="BT1" s="13"/>
+      <c r="BU1" s="13"/>
+      <c r="BV1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="BW1" s="16"/>
-      <c r="BX1" s="16"/>
-      <c r="BY1" s="16"/>
-      <c r="BZ1" s="16"/>
-      <c r="CA1" s="16" t="s">
+      <c r="BW1" s="13"/>
+      <c r="BX1" s="13"/>
+      <c r="BY1" s="13"/>
+      <c r="BZ1" s="13"/>
+      <c r="CA1" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="CB1" s="16"/>
-      <c r="CC1" s="16"/>
-      <c r="CD1" s="16"/>
-      <c r="CE1" s="16"/>
-      <c r="CF1" s="16" t="s">
+      <c r="CB1" s="13"/>
+      <c r="CC1" s="13"/>
+      <c r="CD1" s="13"/>
+      <c r="CE1" s="13"/>
+      <c r="CF1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="CG1" s="16"/>
-      <c r="CH1" s="16"/>
-      <c r="CI1" s="16"/>
-      <c r="CJ1" s="16"/>
-      <c r="CK1" s="16" t="s">
+      <c r="CG1" s="13"/>
+      <c r="CH1" s="13"/>
+      <c r="CI1" s="13"/>
+      <c r="CJ1" s="13"/>
+      <c r="CK1" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="CL1" s="16"/>
-      <c r="CM1" s="16"/>
-      <c r="CN1" s="16"/>
-      <c r="CO1" s="16"/>
-      <c r="CP1" s="16" t="s">
+      <c r="CL1" s="13"/>
+      <c r="CM1" s="13"/>
+      <c r="CN1" s="13"/>
+      <c r="CO1" s="13"/>
+      <c r="CP1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="CQ1" s="16"/>
-      <c r="CR1" s="16"/>
-      <c r="CS1" s="16"/>
-      <c r="CT1" s="16"/>
-      <c r="CU1" s="16" t="s">
+      <c r="CQ1" s="13"/>
+      <c r="CR1" s="13"/>
+      <c r="CS1" s="13"/>
+      <c r="CT1" s="13"/>
+      <c r="CU1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="CV1" s="16"/>
-      <c r="CW1" s="16"/>
-      <c r="CX1" s="16"/>
-      <c r="CY1" s="16"/>
-      <c r="CZ1" s="16" t="s">
+      <c r="CV1" s="13"/>
+      <c r="CW1" s="13"/>
+      <c r="CX1" s="13"/>
+      <c r="CY1" s="13"/>
+      <c r="CZ1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="DA1" s="16"/>
-      <c r="DB1" s="16"/>
-      <c r="DC1" s="16"/>
-      <c r="DD1" s="16"/>
-      <c r="DE1" s="16" t="s">
+      <c r="DA1" s="13"/>
+      <c r="DB1" s="13"/>
+      <c r="DC1" s="13"/>
+      <c r="DD1" s="13"/>
+      <c r="DE1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="DF1" s="16"/>
-      <c r="DG1" s="16"/>
-      <c r="DH1" s="16"/>
-      <c r="DI1" s="16"/>
-      <c r="DJ1" s="16" t="s">
+      <c r="DF1" s="13"/>
+      <c r="DG1" s="13"/>
+      <c r="DH1" s="13"/>
+      <c r="DI1" s="13"/>
+      <c r="DJ1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="DK1" s="16"/>
-      <c r="DL1" s="16"/>
-      <c r="DM1" s="16"/>
-      <c r="DN1" s="16"/>
-      <c r="DO1" s="16" t="s">
+      <c r="DK1" s="13"/>
+      <c r="DL1" s="13"/>
+      <c r="DM1" s="13"/>
+      <c r="DN1" s="13"/>
+      <c r="DO1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="DP1" s="16"/>
-      <c r="DQ1" s="16"/>
-      <c r="DR1" s="16"/>
-      <c r="DS1" s="16"/>
-      <c r="DT1" s="16" t="s">
+      <c r="DP1" s="13"/>
+      <c r="DQ1" s="13"/>
+      <c r="DR1" s="13"/>
+      <c r="DS1" s="13"/>
+      <c r="DT1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="DU1" s="16"/>
-      <c r="DV1" s="16"/>
-      <c r="DW1" s="16"/>
-      <c r="DX1" s="16"/>
-      <c r="DY1" s="16" t="s">
+      <c r="DU1" s="13"/>
+      <c r="DV1" s="13"/>
+      <c r="DW1" s="13"/>
+      <c r="DX1" s="13"/>
+      <c r="DY1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="DZ1" s="16"/>
-      <c r="EA1" s="16"/>
-      <c r="EB1" s="16"/>
-      <c r="EC1" s="16"/>
-      <c r="ED1" s="16" t="s">
+      <c r="DZ1" s="13"/>
+      <c r="EA1" s="13"/>
+      <c r="EB1" s="13"/>
+      <c r="EC1" s="13"/>
+      <c r="ED1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="EE1" s="16"/>
-      <c r="EF1" s="16"/>
-      <c r="EG1" s="16"/>
-      <c r="EH1" s="16"/>
-      <c r="EI1" s="16" t="s">
+      <c r="EE1" s="13"/>
+      <c r="EF1" s="13"/>
+      <c r="EG1" s="13"/>
+      <c r="EH1" s="13"/>
+      <c r="EI1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="EJ1" s="16"/>
-      <c r="EK1" s="16"/>
-      <c r="EL1" s="16"/>
-      <c r="EM1" s="16"/>
-      <c r="EN1" s="16" t="s">
+      <c r="EJ1" s="13"/>
+      <c r="EK1" s="13"/>
+      <c r="EL1" s="13"/>
+      <c r="EM1" s="13"/>
+      <c r="EN1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="EO1" s="16"/>
-      <c r="EP1" s="16"/>
-      <c r="EQ1" s="16"/>
-      <c r="ER1" s="16"/>
-      <c r="ES1" s="16" t="s">
+      <c r="EO1" s="13"/>
+      <c r="EP1" s="13"/>
+      <c r="EQ1" s="13"/>
+      <c r="ER1" s="13"/>
+      <c r="ES1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="ET1" s="16"/>
-      <c r="EU1" s="16"/>
-      <c r="EV1" s="16"/>
-      <c r="EW1" s="16"/>
-      <c r="EX1" s="16" t="s">
+      <c r="ET1" s="13"/>
+      <c r="EU1" s="13"/>
+      <c r="EV1" s="13"/>
+      <c r="EW1" s="13"/>
+      <c r="EX1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="EY1" s="16"/>
-      <c r="EZ1" s="16"/>
-      <c r="FA1" s="16"/>
-      <c r="FB1" s="16"/>
-      <c r="FC1" s="16" t="s">
+      <c r="EY1" s="13"/>
+      <c r="EZ1" s="13"/>
+      <c r="FA1" s="13"/>
+      <c r="FB1" s="13"/>
+      <c r="FC1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="FD1" s="16"/>
-      <c r="FE1" s="16"/>
-      <c r="FF1" s="16"/>
-      <c r="FG1" s="16"/>
-      <c r="FH1" s="16" t="s">
+      <c r="FD1" s="13"/>
+      <c r="FE1" s="13"/>
+      <c r="FF1" s="13"/>
+      <c r="FG1" s="13"/>
+      <c r="FH1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="FI1" s="16"/>
-      <c r="FJ1" s="16"/>
-      <c r="FK1" s="16"/>
-      <c r="FL1" s="16"/>
-      <c r="FM1" s="16" t="s">
+      <c r="FI1" s="13"/>
+      <c r="FJ1" s="13"/>
+      <c r="FK1" s="13"/>
+      <c r="FL1" s="13"/>
+      <c r="FM1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="FN1" s="16"/>
-      <c r="FO1" s="16"/>
-      <c r="FP1" s="16"/>
-      <c r="FQ1" s="16"/>
-      <c r="FR1" s="16" t="s">
+      <c r="FN1" s="13"/>
+      <c r="FO1" s="13"/>
+      <c r="FP1" s="13"/>
+      <c r="FQ1" s="13"/>
+      <c r="FR1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="FS1" s="16"/>
-      <c r="FT1" s="16"/>
-      <c r="FU1" s="16"/>
-      <c r="FV1" s="16"/>
-      <c r="FW1" s="16" t="s">
+      <c r="FS1" s="13"/>
+      <c r="FT1" s="13"/>
+      <c r="FU1" s="13"/>
+      <c r="FV1" s="13"/>
+      <c r="FW1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="FX1" s="16"/>
-      <c r="FY1" s="16"/>
-      <c r="FZ1" s="16"/>
-      <c r="GA1" s="16"/>
-      <c r="GB1" s="16" t="s">
+      <c r="FX1" s="13"/>
+      <c r="FY1" s="13"/>
+      <c r="FZ1" s="13"/>
+      <c r="GA1" s="13"/>
+      <c r="GB1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="GC1" s="16"/>
-      <c r="GD1" s="16"/>
-      <c r="GE1" s="16"/>
-      <c r="GF1" s="16"/>
-      <c r="GG1" s="16" t="s">
+      <c r="GC1" s="13"/>
+      <c r="GD1" s="13"/>
+      <c r="GE1" s="13"/>
+      <c r="GF1" s="13"/>
+      <c r="GG1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="GH1" s="16"/>
-      <c r="GI1" s="16"/>
-      <c r="GJ1" s="16"/>
-      <c r="GK1" s="16"/>
-      <c r="GL1" s="16" t="s">
+      <c r="GH1" s="13"/>
+      <c r="GI1" s="13"/>
+      <c r="GJ1" s="13"/>
+      <c r="GK1" s="13"/>
+      <c r="GL1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="GM1" s="16"/>
-      <c r="GN1" s="16"/>
-      <c r="GO1" s="16"/>
-      <c r="GP1" s="16"/>
-      <c r="GQ1" s="16" t="s">
+      <c r="GM1" s="13"/>
+      <c r="GN1" s="13"/>
+      <c r="GO1" s="13"/>
+      <c r="GP1" s="13"/>
+      <c r="GQ1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="GR1" s="16"/>
-      <c r="GS1" s="16"/>
-      <c r="GT1" s="16"/>
-      <c r="GU1" s="16"/>
-      <c r="GV1" s="16" t="s">
+      <c r="GR1" s="13"/>
+      <c r="GS1" s="13"/>
+      <c r="GT1" s="13"/>
+      <c r="GU1" s="13"/>
+      <c r="GV1" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="GW1" s="16"/>
-      <c r="GX1" s="16"/>
-      <c r="GY1" s="16"/>
-      <c r="GZ1" s="16"/>
-      <c r="HA1" s="16" t="s">
+      <c r="GW1" s="13"/>
+      <c r="GX1" s="13"/>
+      <c r="GY1" s="13"/>
+      <c r="GZ1" s="13"/>
+      <c r="HA1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="HB1" s="16"/>
-      <c r="HC1" s="16"/>
-      <c r="HD1" s="16"/>
-      <c r="HE1" s="16"/>
-      <c r="HF1" s="16" t="s">
+      <c r="HB1" s="13"/>
+      <c r="HC1" s="13"/>
+      <c r="HD1" s="13"/>
+      <c r="HE1" s="13"/>
+      <c r="HF1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="HG1" s="16"/>
-      <c r="HH1" s="16"/>
-      <c r="HI1" s="16"/>
-      <c r="HJ1" s="16"/>
-      <c r="HK1" s="16" t="s">
+      <c r="HG1" s="13"/>
+      <c r="HH1" s="13"/>
+      <c r="HI1" s="13"/>
+      <c r="HJ1" s="13"/>
+      <c r="HK1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="HL1" s="16"/>
-      <c r="HM1" s="16"/>
-      <c r="HN1" s="16"/>
-      <c r="HO1" s="16"/>
-      <c r="HP1" s="16" t="s">
+      <c r="HL1" s="13"/>
+      <c r="HM1" s="13"/>
+      <c r="HN1" s="13"/>
+      <c r="HO1" s="13"/>
+      <c r="HP1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="HQ1" s="16"/>
-      <c r="HR1" s="16"/>
-      <c r="HS1" s="16"/>
-      <c r="HT1" s="16"/>
-      <c r="HU1" s="16" t="s">
+      <c r="HQ1" s="13"/>
+      <c r="HR1" s="13"/>
+      <c r="HS1" s="13"/>
+      <c r="HT1" s="13"/>
+      <c r="HU1" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="HV1" s="16"/>
-      <c r="HW1" s="16"/>
-      <c r="HX1" s="16"/>
-      <c r="HY1" s="16"/>
-      <c r="HZ1" s="16" t="s">
+      <c r="HV1" s="13"/>
+      <c r="HW1" s="13"/>
+      <c r="HX1" s="13"/>
+      <c r="HY1" s="13"/>
+      <c r="HZ1" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="IA1" s="16"/>
-      <c r="IB1" s="16"/>
-      <c r="IC1" s="16"/>
-      <c r="ID1" s="16"/>
-      <c r="IE1" s="16" t="s">
+      <c r="IA1" s="13"/>
+      <c r="IB1" s="13"/>
+      <c r="IC1" s="13"/>
+      <c r="ID1" s="13"/>
+      <c r="IE1" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="IF1" s="16"/>
-      <c r="IG1" s="16"/>
-      <c r="IH1" s="16"/>
-      <c r="II1" s="16"/>
-      <c r="IJ1" s="16" t="s">
+      <c r="IF1" s="13"/>
+      <c r="IG1" s="13"/>
+      <c r="IH1" s="13"/>
+      <c r="II1" s="13"/>
+      <c r="IJ1" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="IK1" s="16"/>
-      <c r="IL1" s="16"/>
-      <c r="IM1" s="16"/>
-      <c r="IN1" s="16"/>
+      <c r="IK1" s="13"/>
+      <c r="IL1" s="13"/>
+      <c r="IM1" s="13"/>
+      <c r="IN1" s="13"/>
       <c r="IO1" s="3" t="s">
         <v>51</v>
       </c>
@@ -1715,349 +1490,349 @@
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+      <c r="M2" s="13"/>
+      <c r="N2" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="13"/>
+      <c r="Q2" s="13"/>
+      <c r="R2" s="13"/>
+      <c r="S2" s="13" t="s">
         <v>147</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16" t="s">
+      <c r="T2" s="13"/>
+      <c r="U2" s="13"/>
+      <c r="V2" s="13"/>
+      <c r="W2" s="13"/>
+      <c r="X2" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16" t="s">
+      <c r="Y2" s="13"/>
+      <c r="Z2" s="13"/>
+      <c r="AA2" s="13"/>
+      <c r="AB2" s="13"/>
+      <c r="AC2" s="13" t="s">
         <v>149</v>
       </c>
-      <c r="Y2" s="16"/>
-      <c r="Z2" s="16"/>
-      <c r="AA2" s="16"/>
-      <c r="AB2" s="16"/>
-      <c r="AC2" s="16" t="s">
+      <c r="AD2" s="13"/>
+      <c r="AE2" s="13"/>
+      <c r="AF2" s="13"/>
+      <c r="AG2" s="13"/>
+      <c r="AH2" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="AD2" s="16"/>
-      <c r="AE2" s="16"/>
-      <c r="AF2" s="16"/>
-      <c r="AG2" s="16"/>
-      <c r="AH2" s="16" t="s">
+      <c r="AI2" s="13"/>
+      <c r="AJ2" s="13"/>
+      <c r="AK2" s="13"/>
+      <c r="AL2" s="13"/>
+      <c r="AM2" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="AI2" s="16"/>
-      <c r="AJ2" s="16"/>
-      <c r="AK2" s="16"/>
-      <c r="AL2" s="16"/>
-      <c r="AM2" s="16" t="s">
+      <c r="AN2" s="13"/>
+      <c r="AO2" s="13"/>
+      <c r="AP2" s="13"/>
+      <c r="AQ2" s="13"/>
+      <c r="AR2" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="AN2" s="16"/>
-      <c r="AO2" s="16"/>
-      <c r="AP2" s="16"/>
-      <c r="AQ2" s="16"/>
-      <c r="AR2" s="16" t="s">
+      <c r="AS2" s="13"/>
+      <c r="AT2" s="13"/>
+      <c r="AU2" s="13"/>
+      <c r="AV2" s="13"/>
+      <c r="AW2" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="AS2" s="16"/>
-      <c r="AT2" s="16"/>
-      <c r="AU2" s="16"/>
-      <c r="AV2" s="16"/>
-      <c r="AW2" s="16" t="s">
+      <c r="AX2" s="13"/>
+      <c r="AY2" s="13"/>
+      <c r="AZ2" s="13"/>
+      <c r="BA2" s="13"/>
+      <c r="BB2" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="AX2" s="16"/>
-      <c r="AY2" s="16"/>
-      <c r="AZ2" s="16"/>
-      <c r="BA2" s="16"/>
-      <c r="BB2" s="16" t="s">
+      <c r="BC2" s="13"/>
+      <c r="BD2" s="13"/>
+      <c r="BE2" s="13"/>
+      <c r="BF2" s="13"/>
+      <c r="BG2" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="BC2" s="16"/>
-      <c r="BD2" s="16"/>
-      <c r="BE2" s="16"/>
-      <c r="BF2" s="16"/>
-      <c r="BG2" s="16" t="s">
+      <c r="BH2" s="13"/>
+      <c r="BI2" s="13"/>
+      <c r="BJ2" s="13"/>
+      <c r="BK2" s="13"/>
+      <c r="BL2" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="BH2" s="16"/>
-      <c r="BI2" s="16"/>
-      <c r="BJ2" s="16"/>
-      <c r="BK2" s="16"/>
-      <c r="BL2" s="16" t="s">
+      <c r="BM2" s="13"/>
+      <c r="BN2" s="13"/>
+      <c r="BO2" s="13"/>
+      <c r="BP2" s="13"/>
+      <c r="BQ2" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="BM2" s="16"/>
-      <c r="BN2" s="16"/>
-      <c r="BO2" s="16"/>
-      <c r="BP2" s="16"/>
-      <c r="BQ2" s="16" t="s">
+      <c r="BR2" s="13"/>
+      <c r="BS2" s="13"/>
+      <c r="BT2" s="13"/>
+      <c r="BU2" s="13"/>
+      <c r="BV2" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="BR2" s="16"/>
-      <c r="BS2" s="16"/>
-      <c r="BT2" s="16"/>
-      <c r="BU2" s="16"/>
-      <c r="BV2" s="16" t="s">
+      <c r="BW2" s="13"/>
+      <c r="BX2" s="13"/>
+      <c r="BY2" s="13"/>
+      <c r="BZ2" s="13"/>
+      <c r="CA2" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="BW2" s="16"/>
-      <c r="BX2" s="16"/>
-      <c r="BY2" s="16"/>
-      <c r="BZ2" s="16"/>
-      <c r="CA2" s="16" t="s">
+      <c r="CB2" s="13"/>
+      <c r="CC2" s="13"/>
+      <c r="CD2" s="13"/>
+      <c r="CE2" s="13"/>
+      <c r="CF2" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="CB2" s="16"/>
-      <c r="CC2" s="16"/>
-      <c r="CD2" s="16"/>
-      <c r="CE2" s="16"/>
-      <c r="CF2" s="16" t="s">
+      <c r="CG2" s="13"/>
+      <c r="CH2" s="13"/>
+      <c r="CI2" s="13"/>
+      <c r="CJ2" s="13"/>
+      <c r="CK2" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="CG2" s="16"/>
-      <c r="CH2" s="16"/>
-      <c r="CI2" s="16"/>
-      <c r="CJ2" s="16"/>
-      <c r="CK2" s="16" t="s">
+      <c r="CL2" s="13"/>
+      <c r="CM2" s="13"/>
+      <c r="CN2" s="13"/>
+      <c r="CO2" s="13"/>
+      <c r="CP2" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="CL2" s="16"/>
-      <c r="CM2" s="16"/>
-      <c r="CN2" s="16"/>
-      <c r="CO2" s="16"/>
-      <c r="CP2" s="16" t="s">
+      <c r="CQ2" s="13"/>
+      <c r="CR2" s="13"/>
+      <c r="CS2" s="13"/>
+      <c r="CT2" s="13"/>
+      <c r="CU2" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="CQ2" s="16"/>
-      <c r="CR2" s="16"/>
-      <c r="CS2" s="16"/>
-      <c r="CT2" s="16"/>
-      <c r="CU2" s="16" t="s">
+      <c r="CV2" s="13"/>
+      <c r="CW2" s="13"/>
+      <c r="CX2" s="13"/>
+      <c r="CY2" s="13"/>
+      <c r="CZ2" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="CV2" s="16"/>
-      <c r="CW2" s="16"/>
-      <c r="CX2" s="16"/>
-      <c r="CY2" s="16"/>
-      <c r="CZ2" s="16" t="s">
+      <c r="DA2" s="13"/>
+      <c r="DB2" s="13"/>
+      <c r="DC2" s="13"/>
+      <c r="DD2" s="13"/>
+      <c r="DE2" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="DA2" s="16"/>
-      <c r="DB2" s="16"/>
-      <c r="DC2" s="16"/>
-      <c r="DD2" s="16"/>
-      <c r="DE2" s="16" t="s">
+      <c r="DF2" s="13"/>
+      <c r="DG2" s="13"/>
+      <c r="DH2" s="13"/>
+      <c r="DI2" s="13"/>
+      <c r="DJ2" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="DF2" s="16"/>
-      <c r="DG2" s="16"/>
-      <c r="DH2" s="16"/>
-      <c r="DI2" s="16"/>
-      <c r="DJ2" s="16" t="s">
+      <c r="DK2" s="13"/>
+      <c r="DL2" s="13"/>
+      <c r="DM2" s="13"/>
+      <c r="DN2" s="13"/>
+      <c r="DO2" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="DK2" s="16"/>
-      <c r="DL2" s="16"/>
-      <c r="DM2" s="16"/>
-      <c r="DN2" s="16"/>
-      <c r="DO2" s="16" t="s">
+      <c r="DP2" s="13"/>
+      <c r="DQ2" s="13"/>
+      <c r="DR2" s="13"/>
+      <c r="DS2" s="13"/>
+      <c r="DT2" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="DP2" s="16"/>
-      <c r="DQ2" s="16"/>
-      <c r="DR2" s="16"/>
-      <c r="DS2" s="16"/>
-      <c r="DT2" s="16" t="s">
+      <c r="DU2" s="13"/>
+      <c r="DV2" s="13"/>
+      <c r="DW2" s="13"/>
+      <c r="DX2" s="13"/>
+      <c r="DY2" s="13" t="s">
         <v>169</v>
       </c>
-      <c r="DU2" s="16"/>
-      <c r="DV2" s="16"/>
-      <c r="DW2" s="16"/>
-      <c r="DX2" s="16"/>
-      <c r="DY2" s="16" t="s">
+      <c r="DZ2" s="13"/>
+      <c r="EA2" s="13"/>
+      <c r="EB2" s="13"/>
+      <c r="EC2" s="13"/>
+      <c r="ED2" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="DZ2" s="16"/>
-      <c r="EA2" s="16"/>
-      <c r="EB2" s="16"/>
-      <c r="EC2" s="16"/>
-      <c r="ED2" s="16" t="s">
+      <c r="EE2" s="13"/>
+      <c r="EF2" s="13"/>
+      <c r="EG2" s="13"/>
+      <c r="EH2" s="13"/>
+      <c r="EI2" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="EE2" s="16"/>
-      <c r="EF2" s="16"/>
-      <c r="EG2" s="16"/>
-      <c r="EH2" s="16"/>
-      <c r="EI2" s="16" t="s">
+      <c r="EJ2" s="13"/>
+      <c r="EK2" s="13"/>
+      <c r="EL2" s="13"/>
+      <c r="EM2" s="13"/>
+      <c r="EN2" s="13" t="s">
         <v>172</v>
       </c>
-      <c r="EJ2" s="16"/>
-      <c r="EK2" s="16"/>
-      <c r="EL2" s="16"/>
-      <c r="EM2" s="16"/>
-      <c r="EN2" s="16" t="s">
+      <c r="EO2" s="13"/>
+      <c r="EP2" s="13"/>
+      <c r="EQ2" s="13"/>
+      <c r="ER2" s="13"/>
+      <c r="ES2" s="13" t="s">
         <v>173</v>
       </c>
-      <c r="EO2" s="16"/>
-      <c r="EP2" s="16"/>
-      <c r="EQ2" s="16"/>
-      <c r="ER2" s="16"/>
-      <c r="ES2" s="16" t="s">
+      <c r="ET2" s="13"/>
+      <c r="EU2" s="13"/>
+      <c r="EV2" s="13"/>
+      <c r="EW2" s="13"/>
+      <c r="EX2" s="13" t="s">
         <v>174</v>
       </c>
-      <c r="ET2" s="16"/>
-      <c r="EU2" s="16"/>
-      <c r="EV2" s="16"/>
-      <c r="EW2" s="16"/>
-      <c r="EX2" s="16" t="s">
+      <c r="EY2" s="13"/>
+      <c r="EZ2" s="13"/>
+      <c r="FA2" s="13"/>
+      <c r="FB2" s="13"/>
+      <c r="FC2" s="13" t="s">
         <v>175</v>
       </c>
-      <c r="EY2" s="16"/>
-      <c r="EZ2" s="16"/>
-      <c r="FA2" s="16"/>
-      <c r="FB2" s="16"/>
-      <c r="FC2" s="16" t="s">
+      <c r="FD2" s="13"/>
+      <c r="FE2" s="13"/>
+      <c r="FF2" s="13"/>
+      <c r="FG2" s="13"/>
+      <c r="FH2" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="FD2" s="16"/>
-      <c r="FE2" s="16"/>
-      <c r="FF2" s="16"/>
-      <c r="FG2" s="16"/>
-      <c r="FH2" s="16" t="s">
+      <c r="FI2" s="13"/>
+      <c r="FJ2" s="13"/>
+      <c r="FK2" s="13"/>
+      <c r="FL2" s="13"/>
+      <c r="FM2" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="FI2" s="16"/>
-      <c r="FJ2" s="16"/>
-      <c r="FK2" s="16"/>
-      <c r="FL2" s="16"/>
-      <c r="FM2" s="16" t="s">
+      <c r="FN2" s="13"/>
+      <c r="FO2" s="13"/>
+      <c r="FP2" s="13"/>
+      <c r="FQ2" s="13"/>
+      <c r="FR2" s="13" t="s">
         <v>178</v>
       </c>
-      <c r="FN2" s="16"/>
-      <c r="FO2" s="16"/>
-      <c r="FP2" s="16"/>
-      <c r="FQ2" s="16"/>
-      <c r="FR2" s="16" t="s">
+      <c r="FS2" s="13"/>
+      <c r="FT2" s="13"/>
+      <c r="FU2" s="13"/>
+      <c r="FV2" s="13"/>
+      <c r="FW2" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="FS2" s="16"/>
-      <c r="FT2" s="16"/>
-      <c r="FU2" s="16"/>
-      <c r="FV2" s="16"/>
-      <c r="FW2" s="16" t="s">
+      <c r="FX2" s="13"/>
+      <c r="FY2" s="13"/>
+      <c r="FZ2" s="13"/>
+      <c r="GA2" s="13"/>
+      <c r="GB2" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="FX2" s="16"/>
-      <c r="FY2" s="16"/>
-      <c r="FZ2" s="16"/>
-      <c r="GA2" s="16"/>
-      <c r="GB2" s="16" t="s">
+      <c r="GC2" s="13"/>
+      <c r="GD2" s="13"/>
+      <c r="GE2" s="13"/>
+      <c r="GF2" s="13"/>
+      <c r="GG2" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="GC2" s="16"/>
-      <c r="GD2" s="16"/>
-      <c r="GE2" s="16"/>
-      <c r="GF2" s="16"/>
-      <c r="GG2" s="16" t="s">
+      <c r="GH2" s="13"/>
+      <c r="GI2" s="13"/>
+      <c r="GJ2" s="13"/>
+      <c r="GK2" s="13"/>
+      <c r="GL2" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="GH2" s="16"/>
-      <c r="GI2" s="16"/>
-      <c r="GJ2" s="16"/>
-      <c r="GK2" s="16"/>
-      <c r="GL2" s="16" t="s">
+      <c r="GM2" s="13"/>
+      <c r="GN2" s="13"/>
+      <c r="GO2" s="13"/>
+      <c r="GP2" s="13"/>
+      <c r="GQ2" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="GM2" s="16"/>
-      <c r="GN2" s="16"/>
-      <c r="GO2" s="16"/>
-      <c r="GP2" s="16"/>
-      <c r="GQ2" s="16" t="s">
+      <c r="GR2" s="13"/>
+      <c r="GS2" s="13"/>
+      <c r="GT2" s="13"/>
+      <c r="GU2" s="13"/>
+      <c r="GV2" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="GR2" s="16"/>
-      <c r="GS2" s="16"/>
-      <c r="GT2" s="16"/>
-      <c r="GU2" s="16"/>
-      <c r="GV2" s="16" t="s">
+      <c r="GW2" s="13"/>
+      <c r="GX2" s="13"/>
+      <c r="GY2" s="13"/>
+      <c r="GZ2" s="13"/>
+      <c r="HA2" s="13" t="s">
         <v>185</v>
       </c>
-      <c r="GW2" s="16"/>
-      <c r="GX2" s="16"/>
-      <c r="GY2" s="16"/>
-      <c r="GZ2" s="16"/>
-      <c r="HA2" s="16" t="s">
+      <c r="HB2" s="13"/>
+      <c r="HC2" s="13"/>
+      <c r="HD2" s="13"/>
+      <c r="HE2" s="13"/>
+      <c r="HF2" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="HB2" s="16"/>
-      <c r="HC2" s="16"/>
-      <c r="HD2" s="16"/>
-      <c r="HE2" s="16"/>
-      <c r="HF2" s="16" t="s">
+      <c r="HG2" s="13"/>
+      <c r="HH2" s="13"/>
+      <c r="HI2" s="13"/>
+      <c r="HJ2" s="13"/>
+      <c r="HK2" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="HG2" s="16"/>
-      <c r="HH2" s="16"/>
-      <c r="HI2" s="16"/>
-      <c r="HJ2" s="16"/>
-      <c r="HK2" s="16" t="s">
+      <c r="HL2" s="13"/>
+      <c r="HM2" s="13"/>
+      <c r="HN2" s="13"/>
+      <c r="HO2" s="13"/>
+      <c r="HP2" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="HL2" s="16"/>
-      <c r="HM2" s="16"/>
-      <c r="HN2" s="16"/>
-      <c r="HO2" s="16"/>
-      <c r="HP2" s="16" t="s">
+      <c r="HQ2" s="13"/>
+      <c r="HR2" s="13"/>
+      <c r="HS2" s="13"/>
+      <c r="HT2" s="13"/>
+      <c r="HU2" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="HQ2" s="16"/>
-      <c r="HR2" s="16"/>
-      <c r="HS2" s="16"/>
-      <c r="HT2" s="16"/>
-      <c r="HU2" s="16" t="s">
+      <c r="HV2" s="13"/>
+      <c r="HW2" s="13"/>
+      <c r="HX2" s="13"/>
+      <c r="HY2" s="13"/>
+      <c r="HZ2" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="HV2" s="16"/>
-      <c r="HW2" s="16"/>
-      <c r="HX2" s="16"/>
-      <c r="HY2" s="16"/>
-      <c r="HZ2" s="16" t="s">
+      <c r="IA2" s="13"/>
+      <c r="IB2" s="13"/>
+      <c r="IC2" s="13"/>
+      <c r="ID2" s="13"/>
+      <c r="IE2" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="IA2" s="16"/>
-      <c r="IB2" s="16"/>
-      <c r="IC2" s="16"/>
-      <c r="ID2" s="16"/>
-      <c r="IE2" s="16" t="s">
+      <c r="IF2" s="13"/>
+      <c r="IG2" s="13"/>
+      <c r="IH2" s="13"/>
+      <c r="II2" s="13"/>
+      <c r="IJ2" s="13" t="s">
         <v>192</v>
       </c>
-      <c r="IF2" s="16"/>
-      <c r="IG2" s="16"/>
-      <c r="IH2" s="16"/>
-      <c r="II2" s="16"/>
-      <c r="IJ2" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="IK2" s="16"/>
-      <c r="IL2" s="16"/>
-      <c r="IM2" s="16"/>
-      <c r="IN2" s="16"/>
+      <c r="IK2" s="13"/>
+      <c r="IL2" s="13"/>
+      <c r="IM2" s="13"/>
+      <c r="IN2" s="13"/>
       <c r="IO2" s="3"/>
       <c r="IP2" s="3"/>
       <c r="IQ2" s="3"/>
@@ -2068,349 +1843,349 @@
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="13">
+      <c r="D3" s="14">
         <v>2</v>
       </c>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="13">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="14">
         <v>3</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="13">
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="14">
         <v>3</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="13">
+      <c r="O3" s="15"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="15"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="14">
         <v>3</v>
       </c>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="13">
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="14">
         <v>3</v>
       </c>
-      <c r="Y3" s="14"/>
-      <c r="Z3" s="14"/>
-      <c r="AA3" s="14"/>
-      <c r="AB3" s="15"/>
-      <c r="AC3" s="13">
+      <c r="Y3" s="15"/>
+      <c r="Z3" s="15"/>
+      <c r="AA3" s="15"/>
+      <c r="AB3" s="16"/>
+      <c r="AC3" s="14">
         <v>3</v>
       </c>
-      <c r="AD3" s="14"/>
-      <c r="AE3" s="14"/>
-      <c r="AF3" s="14"/>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="13">
+      <c r="AD3" s="15"/>
+      <c r="AE3" s="15"/>
+      <c r="AF3" s="15"/>
+      <c r="AG3" s="16"/>
+      <c r="AH3" s="14">
         <v>3</v>
       </c>
-      <c r="AI3" s="14"/>
-      <c r="AJ3" s="14"/>
-      <c r="AK3" s="14"/>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="13">
+      <c r="AI3" s="15"/>
+      <c r="AJ3" s="15"/>
+      <c r="AK3" s="15"/>
+      <c r="AL3" s="16"/>
+      <c r="AM3" s="14">
         <v>3</v>
       </c>
-      <c r="AN3" s="14"/>
-      <c r="AO3" s="14"/>
-      <c r="AP3" s="14"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="13">
+      <c r="AN3" s="15"/>
+      <c r="AO3" s="15"/>
+      <c r="AP3" s="15"/>
+      <c r="AQ3" s="16"/>
+      <c r="AR3" s="14">
         <v>3</v>
       </c>
-      <c r="AS3" s="14"/>
-      <c r="AT3" s="14"/>
-      <c r="AU3" s="14"/>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="13">
+      <c r="AS3" s="15"/>
+      <c r="AT3" s="15"/>
+      <c r="AU3" s="15"/>
+      <c r="AV3" s="16"/>
+      <c r="AW3" s="14">
         <v>3</v>
       </c>
-      <c r="AX3" s="14"/>
-      <c r="AY3" s="14"/>
-      <c r="AZ3" s="14"/>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="13">
+      <c r="AX3" s="15"/>
+      <c r="AY3" s="15"/>
+      <c r="AZ3" s="15"/>
+      <c r="BA3" s="16"/>
+      <c r="BB3" s="14">
         <v>3</v>
       </c>
-      <c r="BC3" s="14"/>
-      <c r="BD3" s="14"/>
-      <c r="BE3" s="14"/>
-      <c r="BF3" s="15"/>
-      <c r="BG3" s="13">
+      <c r="BC3" s="15"/>
+      <c r="BD3" s="15"/>
+      <c r="BE3" s="15"/>
+      <c r="BF3" s="16"/>
+      <c r="BG3" s="14">
         <v>3</v>
       </c>
-      <c r="BH3" s="14"/>
-      <c r="BI3" s="14"/>
-      <c r="BJ3" s="14"/>
-      <c r="BK3" s="15"/>
-      <c r="BL3" s="13">
+      <c r="BH3" s="15"/>
+      <c r="BI3" s="15"/>
+      <c r="BJ3" s="15"/>
+      <c r="BK3" s="16"/>
+      <c r="BL3" s="14">
         <v>3</v>
       </c>
-      <c r="BM3" s="14"/>
-      <c r="BN3" s="14"/>
-      <c r="BO3" s="14"/>
-      <c r="BP3" s="15"/>
-      <c r="BQ3" s="13">
+      <c r="BM3" s="15"/>
+      <c r="BN3" s="15"/>
+      <c r="BO3" s="15"/>
+      <c r="BP3" s="16"/>
+      <c r="BQ3" s="14">
         <v>3</v>
       </c>
-      <c r="BR3" s="14"/>
-      <c r="BS3" s="14"/>
-      <c r="BT3" s="14"/>
-      <c r="BU3" s="15"/>
-      <c r="BV3" s="13">
+      <c r="BR3" s="15"/>
+      <c r="BS3" s="15"/>
+      <c r="BT3" s="15"/>
+      <c r="BU3" s="16"/>
+      <c r="BV3" s="14">
         <v>4</v>
       </c>
-      <c r="BW3" s="14"/>
-      <c r="BX3" s="14"/>
-      <c r="BY3" s="14"/>
-      <c r="BZ3" s="15"/>
-      <c r="CA3" s="13">
+      <c r="BW3" s="15"/>
+      <c r="BX3" s="15"/>
+      <c r="BY3" s="15"/>
+      <c r="BZ3" s="16"/>
+      <c r="CA3" s="14">
         <v>3</v>
       </c>
-      <c r="CB3" s="14"/>
-      <c r="CC3" s="14"/>
-      <c r="CD3" s="14"/>
-      <c r="CE3" s="15"/>
-      <c r="CF3" s="13">
+      <c r="CB3" s="15"/>
+      <c r="CC3" s="15"/>
+      <c r="CD3" s="15"/>
+      <c r="CE3" s="16"/>
+      <c r="CF3" s="14">
         <v>3</v>
       </c>
-      <c r="CG3" s="14"/>
-      <c r="CH3" s="14"/>
-      <c r="CI3" s="14"/>
-      <c r="CJ3" s="15"/>
-      <c r="CK3" s="13">
+      <c r="CG3" s="15"/>
+      <c r="CH3" s="15"/>
+      <c r="CI3" s="15"/>
+      <c r="CJ3" s="16"/>
+      <c r="CK3" s="14">
         <v>3</v>
       </c>
-      <c r="CL3" s="14"/>
-      <c r="CM3" s="14"/>
-      <c r="CN3" s="14"/>
-      <c r="CO3" s="15"/>
-      <c r="CP3" s="13">
+      <c r="CL3" s="15"/>
+      <c r="CM3" s="15"/>
+      <c r="CN3" s="15"/>
+      <c r="CO3" s="16"/>
+      <c r="CP3" s="14">
         <v>3</v>
       </c>
-      <c r="CQ3" s="14"/>
-      <c r="CR3" s="14"/>
-      <c r="CS3" s="14"/>
-      <c r="CT3" s="15"/>
-      <c r="CU3" s="13">
+      <c r="CQ3" s="15"/>
+      <c r="CR3" s="15"/>
+      <c r="CS3" s="15"/>
+      <c r="CT3" s="16"/>
+      <c r="CU3" s="14">
         <v>3</v>
       </c>
-      <c r="CV3" s="14"/>
-      <c r="CW3" s="14"/>
-      <c r="CX3" s="14"/>
-      <c r="CY3" s="15"/>
-      <c r="CZ3" s="13">
+      <c r="CV3" s="15"/>
+      <c r="CW3" s="15"/>
+      <c r="CX3" s="15"/>
+      <c r="CY3" s="16"/>
+      <c r="CZ3" s="14">
         <v>3</v>
       </c>
-      <c r="DA3" s="14"/>
-      <c r="DB3" s="14"/>
-      <c r="DC3" s="14"/>
-      <c r="DD3" s="15"/>
-      <c r="DE3" s="13">
+      <c r="DA3" s="15"/>
+      <c r="DB3" s="15"/>
+      <c r="DC3" s="15"/>
+      <c r="DD3" s="16"/>
+      <c r="DE3" s="14">
         <v>3</v>
       </c>
-      <c r="DF3" s="14"/>
-      <c r="DG3" s="14"/>
-      <c r="DH3" s="14"/>
-      <c r="DI3" s="15"/>
-      <c r="DJ3" s="13">
+      <c r="DF3" s="15"/>
+      <c r="DG3" s="15"/>
+      <c r="DH3" s="15"/>
+      <c r="DI3" s="16"/>
+      <c r="DJ3" s="14">
         <v>3</v>
       </c>
-      <c r="DK3" s="14"/>
-      <c r="DL3" s="14"/>
-      <c r="DM3" s="14"/>
-      <c r="DN3" s="15"/>
-      <c r="DO3" s="13">
+      <c r="DK3" s="15"/>
+      <c r="DL3" s="15"/>
+      <c r="DM3" s="15"/>
+      <c r="DN3" s="16"/>
+      <c r="DO3" s="14">
         <v>3</v>
       </c>
-      <c r="DP3" s="14"/>
-      <c r="DQ3" s="14"/>
-      <c r="DR3" s="14"/>
-      <c r="DS3" s="15"/>
-      <c r="DT3" s="13">
+      <c r="DP3" s="15"/>
+      <c r="DQ3" s="15"/>
+      <c r="DR3" s="15"/>
+      <c r="DS3" s="16"/>
+      <c r="DT3" s="14">
         <v>3</v>
       </c>
-      <c r="DU3" s="14"/>
-      <c r="DV3" s="14"/>
-      <c r="DW3" s="14"/>
-      <c r="DX3" s="15"/>
-      <c r="DY3" s="13">
+      <c r="DU3" s="15"/>
+      <c r="DV3" s="15"/>
+      <c r="DW3" s="15"/>
+      <c r="DX3" s="16"/>
+      <c r="DY3" s="14">
         <v>3</v>
       </c>
-      <c r="DZ3" s="14"/>
-      <c r="EA3" s="14"/>
-      <c r="EB3" s="14"/>
-      <c r="EC3" s="15"/>
-      <c r="ED3" s="13">
+      <c r="DZ3" s="15"/>
+      <c r="EA3" s="15"/>
+      <c r="EB3" s="15"/>
+      <c r="EC3" s="16"/>
+      <c r="ED3" s="14">
         <v>3</v>
       </c>
-      <c r="EE3" s="14"/>
-      <c r="EF3" s="14"/>
-      <c r="EG3" s="14"/>
-      <c r="EH3" s="15"/>
-      <c r="EI3" s="13">
+      <c r="EE3" s="15"/>
+      <c r="EF3" s="15"/>
+      <c r="EG3" s="15"/>
+      <c r="EH3" s="16"/>
+      <c r="EI3" s="14">
         <v>3</v>
       </c>
-      <c r="EJ3" s="14"/>
-      <c r="EK3" s="14"/>
-      <c r="EL3" s="14"/>
-      <c r="EM3" s="15"/>
-      <c r="EN3" s="13">
+      <c r="EJ3" s="15"/>
+      <c r="EK3" s="15"/>
+      <c r="EL3" s="15"/>
+      <c r="EM3" s="16"/>
+      <c r="EN3" s="14">
         <v>2</v>
       </c>
-      <c r="EO3" s="14"/>
-      <c r="EP3" s="14"/>
-      <c r="EQ3" s="14"/>
-      <c r="ER3" s="15"/>
-      <c r="ES3" s="13">
+      <c r="EO3" s="15"/>
+      <c r="EP3" s="15"/>
+      <c r="EQ3" s="15"/>
+      <c r="ER3" s="16"/>
+      <c r="ES3" s="14">
         <v>2</v>
       </c>
-      <c r="ET3" s="14"/>
-      <c r="EU3" s="14"/>
-      <c r="EV3" s="14"/>
-      <c r="EW3" s="15"/>
-      <c r="EX3" s="13">
+      <c r="ET3" s="15"/>
+      <c r="EU3" s="15"/>
+      <c r="EV3" s="15"/>
+      <c r="EW3" s="16"/>
+      <c r="EX3" s="14">
         <v>1</v>
       </c>
-      <c r="EY3" s="14"/>
-      <c r="EZ3" s="14"/>
-      <c r="FA3" s="14"/>
-      <c r="FB3" s="15"/>
-      <c r="FC3" s="13">
+      <c r="EY3" s="15"/>
+      <c r="EZ3" s="15"/>
+      <c r="FA3" s="15"/>
+      <c r="FB3" s="16"/>
+      <c r="FC3" s="14">
         <v>1</v>
       </c>
-      <c r="FD3" s="14"/>
-      <c r="FE3" s="14"/>
-      <c r="FF3" s="14"/>
-      <c r="FG3" s="15"/>
-      <c r="FH3" s="13">
+      <c r="FD3" s="15"/>
+      <c r="FE3" s="15"/>
+      <c r="FF3" s="15"/>
+      <c r="FG3" s="16"/>
+      <c r="FH3" s="14">
         <v>2</v>
       </c>
-      <c r="FI3" s="14"/>
-      <c r="FJ3" s="14"/>
-      <c r="FK3" s="14"/>
-      <c r="FL3" s="15"/>
-      <c r="FM3" s="13">
+      <c r="FI3" s="15"/>
+      <c r="FJ3" s="15"/>
+      <c r="FK3" s="15"/>
+      <c r="FL3" s="16"/>
+      <c r="FM3" s="14">
         <v>2</v>
       </c>
-      <c r="FN3" s="14"/>
-      <c r="FO3" s="14"/>
-      <c r="FP3" s="14"/>
-      <c r="FQ3" s="15"/>
-      <c r="FR3" s="13">
+      <c r="FN3" s="15"/>
+      <c r="FO3" s="15"/>
+      <c r="FP3" s="15"/>
+      <c r="FQ3" s="16"/>
+      <c r="FR3" s="14">
         <v>2</v>
       </c>
-      <c r="FS3" s="14"/>
-      <c r="FT3" s="14"/>
-      <c r="FU3" s="14"/>
-      <c r="FV3" s="15"/>
-      <c r="FW3" s="13">
+      <c r="FS3" s="15"/>
+      <c r="FT3" s="15"/>
+      <c r="FU3" s="15"/>
+      <c r="FV3" s="16"/>
+      <c r="FW3" s="14">
         <v>2</v>
       </c>
-      <c r="FX3" s="14"/>
-      <c r="FY3" s="14"/>
-      <c r="FZ3" s="14"/>
-      <c r="GA3" s="15"/>
-      <c r="GB3" s="13">
+      <c r="FX3" s="15"/>
+      <c r="FY3" s="15"/>
+      <c r="FZ3" s="15"/>
+      <c r="GA3" s="16"/>
+      <c r="GB3" s="14">
         <v>2</v>
       </c>
-      <c r="GC3" s="14"/>
-      <c r="GD3" s="14"/>
-      <c r="GE3" s="14"/>
-      <c r="GF3" s="15"/>
-      <c r="GG3" s="13">
+      <c r="GC3" s="15"/>
+      <c r="GD3" s="15"/>
+      <c r="GE3" s="15"/>
+      <c r="GF3" s="16"/>
+      <c r="GG3" s="14">
         <v>1</v>
       </c>
-      <c r="GH3" s="14"/>
-      <c r="GI3" s="14"/>
-      <c r="GJ3" s="14"/>
-      <c r="GK3" s="15"/>
-      <c r="GL3" s="13">
+      <c r="GH3" s="15"/>
+      <c r="GI3" s="15"/>
+      <c r="GJ3" s="15"/>
+      <c r="GK3" s="16"/>
+      <c r="GL3" s="14">
         <v>2</v>
       </c>
-      <c r="GM3" s="14"/>
-      <c r="GN3" s="14"/>
-      <c r="GO3" s="14"/>
-      <c r="GP3" s="15"/>
-      <c r="GQ3" s="13">
+      <c r="GM3" s="15"/>
+      <c r="GN3" s="15"/>
+      <c r="GO3" s="15"/>
+      <c r="GP3" s="16"/>
+      <c r="GQ3" s="14">
         <v>2</v>
       </c>
-      <c r="GR3" s="14"/>
-      <c r="GS3" s="14"/>
-      <c r="GT3" s="14"/>
-      <c r="GU3" s="15"/>
-      <c r="GV3" s="13">
+      <c r="GR3" s="15"/>
+      <c r="GS3" s="15"/>
+      <c r="GT3" s="15"/>
+      <c r="GU3" s="16"/>
+      <c r="GV3" s="14">
         <v>2</v>
       </c>
-      <c r="GW3" s="14"/>
-      <c r="GX3" s="14"/>
-      <c r="GY3" s="14"/>
-      <c r="GZ3" s="15"/>
-      <c r="HA3" s="13">
+      <c r="GW3" s="15"/>
+      <c r="GX3" s="15"/>
+      <c r="GY3" s="15"/>
+      <c r="GZ3" s="16"/>
+      <c r="HA3" s="14">
         <v>2</v>
       </c>
-      <c r="HB3" s="14"/>
-      <c r="HC3" s="14"/>
-      <c r="HD3" s="14"/>
-      <c r="HE3" s="15"/>
-      <c r="HF3" s="13">
+      <c r="HB3" s="15"/>
+      <c r="HC3" s="15"/>
+      <c r="HD3" s="15"/>
+      <c r="HE3" s="16"/>
+      <c r="HF3" s="14">
         <v>2</v>
       </c>
-      <c r="HG3" s="14"/>
-      <c r="HH3" s="14"/>
-      <c r="HI3" s="14"/>
-      <c r="HJ3" s="15"/>
-      <c r="HK3" s="13">
+      <c r="HG3" s="15"/>
+      <c r="HH3" s="15"/>
+      <c r="HI3" s="15"/>
+      <c r="HJ3" s="16"/>
+      <c r="HK3" s="14">
         <v>2</v>
       </c>
-      <c r="HL3" s="14"/>
-      <c r="HM3" s="14"/>
-      <c r="HN3" s="14"/>
-      <c r="HO3" s="15"/>
-      <c r="HP3" s="13">
+      <c r="HL3" s="15"/>
+      <c r="HM3" s="15"/>
+      <c r="HN3" s="15"/>
+      <c r="HO3" s="16"/>
+      <c r="HP3" s="14">
         <v>2</v>
       </c>
-      <c r="HQ3" s="14"/>
-      <c r="HR3" s="14"/>
-      <c r="HS3" s="14"/>
-      <c r="HT3" s="15"/>
-      <c r="HU3" s="13">
+      <c r="HQ3" s="15"/>
+      <c r="HR3" s="15"/>
+      <c r="HS3" s="15"/>
+      <c r="HT3" s="16"/>
+      <c r="HU3" s="14">
         <v>1</v>
       </c>
-      <c r="HV3" s="14"/>
-      <c r="HW3" s="14"/>
-      <c r="HX3" s="14"/>
-      <c r="HY3" s="15"/>
-      <c r="HZ3" s="13">
+      <c r="HV3" s="15"/>
+      <c r="HW3" s="15"/>
+      <c r="HX3" s="15"/>
+      <c r="HY3" s="16"/>
+      <c r="HZ3" s="14">
         <v>4</v>
       </c>
-      <c r="IA3" s="14"/>
-      <c r="IB3" s="14"/>
-      <c r="IC3" s="14"/>
-      <c r="ID3" s="15"/>
-      <c r="IE3" s="13">
+      <c r="IA3" s="15"/>
+      <c r="IB3" s="15"/>
+      <c r="IC3" s="15"/>
+      <c r="ID3" s="16"/>
+      <c r="IE3" s="14">
         <v>2</v>
       </c>
-      <c r="IF3" s="14"/>
-      <c r="IG3" s="14"/>
-      <c r="IH3" s="14"/>
-      <c r="II3" s="15"/>
-      <c r="IJ3" s="13">
+      <c r="IF3" s="15"/>
+      <c r="IG3" s="15"/>
+      <c r="IH3" s="15"/>
+      <c r="II3" s="16"/>
+      <c r="IJ3" s="14">
         <v>3</v>
       </c>
-      <c r="IK3" s="14"/>
-      <c r="IL3" s="14"/>
-      <c r="IM3" s="14"/>
-      <c r="IN3" s="15"/>
+      <c r="IK3" s="15"/>
+      <c r="IL3" s="15"/>
+      <c r="IM3" s="15"/>
+      <c r="IN3" s="16"/>
       <c r="IO3" s="3"/>
       <c r="IP3" s="3"/>
       <c r="IQ3" s="3"/>
@@ -2422,739 +2197,739 @@
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="I4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="N4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="S4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="U4" s="1" t="s">
+      <c r="V4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="W4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="X4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="Y4" s="1" t="s">
+      <c r="Z4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="Z4" s="1" t="s">
+      <c r="AA4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AA4" s="1" t="s">
+      <c r="AB4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AB4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="AC4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AD4" s="1" t="s">
+      <c r="AE4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AE4" s="1" t="s">
+      <c r="AF4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AF4" s="1" t="s">
+      <c r="AG4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AG4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="AH4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AI4" s="1" t="s">
+      <c r="AJ4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AJ4" s="1" t="s">
+      <c r="AK4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AK4" s="1" t="s">
+      <c r="AL4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AL4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="AM4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AN4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AO4" s="1" t="s">
+      <c r="AP4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AP4" s="1" t="s">
+      <c r="AQ4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AQ4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="AR4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AS4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AS4" s="1" t="s">
+      <c r="AT4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AU4" s="1" t="s">
+      <c r="AV4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="AV4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="AW4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="BA4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BA4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="BB4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BC4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BD4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="BE4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BF4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BF4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="BG4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BH4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BH4" s="1" t="s">
+      <c r="BI4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BJ4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BJ4" s="1" t="s">
+      <c r="BK4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BK4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="BL4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BM4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BM4" s="1" t="s">
+      <c r="BN4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BN4" s="1" t="s">
+      <c r="BO4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BO4" s="1" t="s">
+      <c r="BP4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BP4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="BQ4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BR4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BR4" s="1" t="s">
+      <c r="BS4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BS4" s="1" t="s">
+      <c r="BT4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BT4" s="1" t="s">
+      <c r="BU4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BU4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="BV4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="BW4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="BW4" s="1" t="s">
+      <c r="BX4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BX4" s="1" t="s">
+      <c r="BY4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BY4" s="1" t="s">
+      <c r="BZ4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="BZ4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="CA4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CB4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CB4" s="1" t="s">
+      <c r="CC4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CC4" s="1" t="s">
+      <c r="CD4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CD4" s="1" t="s">
+      <c r="CE4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="CE4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="CF4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CG4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CG4" s="1" t="s">
+      <c r="CH4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CH4" s="1" t="s">
+      <c r="CI4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CI4" s="1" t="s">
+      <c r="CJ4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="CJ4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="CK4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CL4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CL4" s="1" t="s">
+      <c r="CM4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CM4" s="1" t="s">
+      <c r="CN4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CN4" s="1" t="s">
+      <c r="CO4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="CO4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="CP4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CQ4" s="1" t="s">
+      <c r="CR4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CR4" s="1" t="s">
+      <c r="CS4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CS4" s="1" t="s">
+      <c r="CT4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="CT4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="CU4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="CV4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="CV4" s="1" t="s">
+      <c r="CW4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="CW4" s="1" t="s">
+      <c r="CX4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="CX4" s="1" t="s">
+      <c r="CY4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="CY4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="CZ4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DA4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="DA4" s="1" t="s">
+      <c r="DB4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="DB4" s="1" t="s">
+      <c r="DC4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="DC4" s="1" t="s">
+      <c r="DD4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="DD4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="DE4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DF4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="DF4" s="1" t="s">
+      <c r="DG4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="DG4" s="1" t="s">
+      <c r="DH4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="DH4" s="1" t="s">
+      <c r="DI4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="DI4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="DJ4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DK4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="DK4" s="1" t="s">
+      <c r="DL4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="DL4" s="1" t="s">
+      <c r="DM4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="DM4" s="1" t="s">
+      <c r="DN4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="DN4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="DO4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DP4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="DP4" s="1" t="s">
+      <c r="DQ4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="DQ4" s="1" t="s">
+      <c r="DR4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="DR4" s="1" t="s">
+      <c r="DS4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="DS4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="DT4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DU4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="DU4" s="1" t="s">
+      <c r="DV4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="DV4" s="1" t="s">
+      <c r="DW4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="DW4" s="1" t="s">
+      <c r="DX4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="DX4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="DY4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="DZ4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="DZ4" s="1" t="s">
+      <c r="EA4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="EA4" s="1" t="s">
+      <c r="EB4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="EB4" s="1" t="s">
+      <c r="EC4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="EC4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="ED4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="EE4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="EE4" s="1" t="s">
+      <c r="EF4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="EF4" s="1" t="s">
+      <c r="EG4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="EG4" s="1" t="s">
+      <c r="EH4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="EH4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="EI4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="EJ4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="EJ4" s="1" t="s">
+      <c r="EK4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="EK4" s="1" t="s">
+      <c r="EL4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="EL4" s="1" t="s">
+      <c r="EM4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="EM4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="EN4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="EO4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="EO4" s="1" t="s">
+      <c r="EP4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="EP4" s="1" t="s">
+      <c r="EQ4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="EQ4" s="1" t="s">
+      <c r="ER4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="ER4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="ES4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="ET4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="ET4" s="1" t="s">
+      <c r="EU4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="EU4" s="1" t="s">
+      <c r="EV4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="EV4" s="1" t="s">
+      <c r="EW4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="EW4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="EX4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="EY4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="EY4" s="1" t="s">
+      <c r="EZ4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="EZ4" s="1" t="s">
+      <c r="FA4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="FA4" s="1" t="s">
+      <c r="FB4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="FB4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="FC4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FD4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="FD4" s="1" t="s">
+      <c r="FE4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="FE4" s="1" t="s">
+      <c r="FF4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="FF4" s="1" t="s">
+      <c r="FG4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="FG4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="FH4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FI4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="FI4" s="1" t="s">
+      <c r="FJ4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="FJ4" s="1" t="s">
+      <c r="FK4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="FK4" s="1" t="s">
+      <c r="FL4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="FL4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="FM4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FN4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="FN4" s="1" t="s">
+      <c r="FO4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="FO4" s="1" t="s">
+      <c r="FP4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="FP4" s="1" t="s">
+      <c r="FQ4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="FQ4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="FR4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FS4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="FS4" s="1" t="s">
+      <c r="FT4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="FT4" s="1" t="s">
+      <c r="FU4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="FU4" s="1" t="s">
+      <c r="FV4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="FV4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="FW4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="FX4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="FX4" s="1" t="s">
+      <c r="FY4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="FY4" s="1" t="s">
+      <c r="FZ4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="FZ4" s="1" t="s">
+      <c r="GA4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="GA4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="GB4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GC4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="GC4" s="1" t="s">
+      <c r="GD4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="GD4" s="1" t="s">
+      <c r="GE4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="GE4" s="1" t="s">
+      <c r="GF4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="GF4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="GG4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GH4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="GH4" s="1" t="s">
+      <c r="GI4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="GI4" s="1" t="s">
+      <c r="GJ4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="GJ4" s="1" t="s">
+      <c r="GK4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="GK4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="GL4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GM4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="GM4" s="1" t="s">
+      <c r="GN4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="GN4" s="1" t="s">
+      <c r="GO4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="GO4" s="1" t="s">
+      <c r="GP4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="GP4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="GQ4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GR4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="GR4" s="1" t="s">
+      <c r="GS4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="GS4" s="1" t="s">
+      <c r="GT4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="GT4" s="1" t="s">
+      <c r="GU4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="GU4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="GV4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="GW4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="GW4" s="1" t="s">
+      <c r="GX4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="GX4" s="1" t="s">
+      <c r="GY4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="GY4" s="1" t="s">
+      <c r="GZ4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="GZ4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="HA4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="HB4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="HB4" s="1" t="s">
+      <c r="HC4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="HC4" s="1" t="s">
+      <c r="HD4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="HD4" s="1" t="s">
+      <c r="HE4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="HE4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="HF4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="HG4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="HG4" s="1" t="s">
+      <c r="HH4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="HH4" s="1" t="s">
+      <c r="HI4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="HI4" s="1" t="s">
+      <c r="HJ4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="HJ4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="HK4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="HL4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="HL4" s="1" t="s">
+      <c r="HM4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="HM4" s="1" t="s">
+      <c r="HN4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="HN4" s="1" t="s">
+      <c r="HO4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="HO4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="HP4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="HQ4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="HQ4" s="1" t="s">
+      <c r="HR4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="HR4" s="1" t="s">
+      <c r="HS4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="HS4" s="1" t="s">
+      <c r="HT4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="HT4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="HU4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="HV4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="HV4" s="1" t="s">
+      <c r="HW4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="HW4" s="1" t="s">
+      <c r="HX4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="HX4" s="1" t="s">
+      <c r="HY4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="HY4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="HZ4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="IA4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="IA4" s="1" t="s">
+      <c r="IB4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="IB4" s="1" t="s">
+      <c r="IC4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="IC4" s="1" t="s">
+      <c r="ID4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="ID4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="IE4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="IF4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="IF4" s="1" t="s">
+      <c r="IG4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="IG4" s="1" t="s">
+      <c r="IH4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="IH4" s="1" t="s">
+      <c r="II4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="II4" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="IJ4" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="IK4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="IK4" s="1" t="s">
+      <c r="IL4" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="IL4" s="1" t="s">
+      <c r="IM4" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="IM4" s="1" t="s">
+      <c r="IN4" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="IN4" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="IO4" s="1"/>
       <c r="IP4" s="1"/>
@@ -3167,22 +2942,22 @@
         <v>1</v>
       </c>
       <c r="B5" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="D5" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="D5" s="10">
-        <v>0</v>
-      </c>
-      <c r="E5" s="10">
-        <v>0</v>
-      </c>
-      <c r="F5" s="10">
-        <v>0</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>62</v>
       </c>
       <c r="H5" s="10">
         <f>IF((G5="O"),10, IF(G5="A+",10, IF(G5="A",9,IF(G5="B+",8,IF(G5="B",7, IF(G5="C+",6,IF(G5="C",5,IF(G5="D+",4,IF(G5="D",3,IF(G5="F",2,0))))))))))</f>
@@ -3212,9 +2987,7 @@
         <f>IF((V5="O"),10, IF(V5="A+",10, IF(V5="A",9,IF(V5="B+",8,IF(V5="B",7, IF(V5="C+",6,IF(V5="C",5,IF(V5="D+",4,IF(V5="D",3,IF(V5="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="X5" s="10">
-        <v>0</v>
-      </c>
+      <c r="X5" s="10"/>
       <c r="Y5" s="10">
         <v>0</v>
       </c>
@@ -3222,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="10">
         <f>IF((AA5="O"),10, IF(AA5="A+",10, IF(AA5="A",9,IF(AA5="B+",8,IF(AA5="B",7, IF(AA5="C+",6,IF(AA5="C",5,IF(AA5="D+",4,IF(AA5="D",3,IF(AA5="F",2,0))))))))))</f>
@@ -3236,9 +3009,7 @@
         <f>IF((AF5="O"),10, IF(AF5="A+",10, IF(AF5="A",9,IF(AF5="B+",8,IF(AF5="B",7, IF(AF5="C+",6,IF(AF5="C",5,IF(AF5="D+",4,IF(AF5="D",3,IF(AF5="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AH5" s="10">
-        <v>0</v>
-      </c>
+      <c r="AH5" s="10"/>
       <c r="AI5" s="10">
         <v>0</v>
       </c>
@@ -3246,7 +3017,7 @@
         <v>0</v>
       </c>
       <c r="AK5" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AL5" s="10">
         <f>IF((AK5="O"),10, IF(AK5="A+",10, IF(AK5="A",9,IF(AK5="B+",8,IF(AK5="B",7, IF(AK5="C+",6,IF(AK5="C",5,IF(AK5="D+",4,IF(AK5="D",3,IF(AK5="F",2,0))))))))))</f>
@@ -3308,9 +3079,7 @@
         <f>IF((BT5="O"),10, IF(BT5="A+",10, IF(BT5="A",9,IF(BT5="B+",8,IF(BT5="B",7, IF(BT5="C+",6,IF(BT5="C",5,IF(BT5="D+",4,IF(BT5="D",3,IF(BT5="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="BV5" s="10">
-        <v>0</v>
-      </c>
+      <c r="BV5" s="10"/>
       <c r="BW5" s="10">
         <v>0</v>
       </c>
@@ -3318,7 +3087,7 @@
         <v>0</v>
       </c>
       <c r="BY5" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BZ5" s="10">
         <f>IF((BY5="O"),10, IF(BY5="A+",10, IF(BY5="A",9,IF(BY5="B+",8,IF(BY5="B",7, IF(BY5="C+",6,IF(BY5="C",5,IF(BY5="D+",4,IF(BY5="D",3,IF(BY5="F",2,0))))))))))</f>
@@ -3356,9 +3125,7 @@
         <f>IF((CS5="O"),10, IF(CS5="A+",10, IF(CS5="A",9,IF(CS5="B+",8,IF(CS5="B",7, IF(CS5="C+",6,IF(CS5="C",5,IF(CS5="D+",4,IF(CS5="D",3,IF(CS5="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="CU5" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU5" s="10"/>
       <c r="CV5" s="10">
         <v>0</v>
       </c>
@@ -3366,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="CX5" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CY5" s="10">
         <f>IF((CX5="O"),10, IF(CX5="A+",10, IF(CX5="A",9,IF(CX5="B+",8,IF(CX5="B",7, IF(CX5="C+",6,IF(CX5="C",5,IF(CX5="D+",4,IF(CX5="D",3,IF(CX5="F",2,0))))))))))</f>
@@ -3396,9 +3163,7 @@
         <f>IF((DM5="O"),10, IF(DM5="A+",10, IF(DM5="A",9,IF(DM5="B+",8,IF(DM5="B",7, IF(DM5="C+",6,IF(DM5="C",5,IF(DM5="D+",4,IF(DM5="D",3,IF(DM5="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="DO5" s="10">
-        <v>0</v>
-      </c>
+      <c r="DO5" s="10"/>
       <c r="DP5" s="10">
         <v>0</v>
       </c>
@@ -3406,7 +3171,7 @@
         <v>0</v>
       </c>
       <c r="DR5" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="DS5" s="10">
         <f>IF((DR5="O"),10, IF(DR5="A+",10, IF(DR5="A",9,IF(DR5="B+",8,IF(DR5="B",7, IF(DR5="C+",6,IF(DR5="C",5,IF(DR5="D+",4,IF(DR5="D",3,IF(DR5="F",2,0))))))))))</f>
@@ -3484,9 +3249,7 @@
         <f>IF((FK5="O"),10, IF(FK5="A+",10, IF(FK5="A",9,IF(FK5="B+",8,IF(FK5="B",7, IF(FK5="C+",6,IF(FK5="C",5,IF(FK5="D+",4,IF(FK5="D",3,IF(FK5="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="FM5" s="10">
-        <v>0</v>
-      </c>
+      <c r="FM5" s="10"/>
       <c r="FN5" s="10">
         <v>0</v>
       </c>
@@ -3494,7 +3257,7 @@
         <v>0</v>
       </c>
       <c r="FP5" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="FQ5" s="10">
         <f>IF((FP5="O"),10, IF(FP5="A+",10, IF(FP5="A",9,IF(FP5="B+",8,IF(FP5="B",7, IF(FP5="C+",6,IF(FP5="C",5,IF(FP5="D+",4,IF(FP5="D",3,IF(FP5="F",2,0))))))))))</f>
@@ -3632,32 +3395,27 @@
       <c r="IR5" s="10">
         <v>8.4</v>
       </c>
-      <c r="IS5" s="6" t="str">
-        <f>IF(B5='[1]VI sem'!B5,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS5" s="6"/>
     </row>
     <row r="6" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>2</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="D6" s="10">
-        <v>0</v>
-      </c>
-      <c r="E6" s="10">
-        <v>0</v>
-      </c>
-      <c r="F6" s="10">
-        <v>0</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>67</v>
       </c>
       <c r="H6" s="10">
         <f>IF((G6="O"),10, IF(G6="A+",10, IF(G6="A",9,IF(G6="B+",8,IF(G6="B",7, IF(G6="C+",6,IF(G6="C",5,IF(G6="D+",4,IF(G6="D",3,IF(G6="F",2,0))))))))))</f>
@@ -3679,9 +3437,7 @@
         <f>IF((Q6="O"),10, IF(Q6="A+",10, IF(Q6="A",9,IF(Q6="B+",8,IF(Q6="B",7, IF(Q6="C+",6,IF(Q6="C",5,IF(Q6="D+",4,IF(Q6="D",3,IF(Q6="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="S6" s="10">
-        <v>0</v>
-      </c>
+      <c r="S6" s="10"/>
       <c r="T6" s="10">
         <v>0</v>
       </c>
@@ -3689,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W6" s="10">
         <f>IF((V6="O"),10, IF(V6="A+",10, IF(V6="A",9,IF(V6="B+",8,IF(V6="B",7, IF(V6="C+",6,IF(V6="C",5,IF(V6="D+",4,IF(V6="D",3,IF(V6="F",2,0))))))))))</f>
@@ -3727,9 +3483,7 @@
         <f>IF((AP6="O"),10, IF(AP6="A+",10, IF(AP6="A",9,IF(AP6="B+",8,IF(AP6="B",7, IF(AP6="C+",6,IF(AP6="C",5,IF(AP6="D+",4,IF(AP6="D",3,IF(AP6="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AR6" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR6" s="10"/>
       <c r="AS6" s="10">
         <v>0</v>
       </c>
@@ -3737,7 +3491,7 @@
         <v>0</v>
       </c>
       <c r="AU6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AV6" s="10">
         <f>IF((AU6="O"),10, IF(AU6="A+",10, IF(AU6="A",9,IF(AU6="B+",8,IF(AU6="B",7, IF(AU6="C+",6,IF(AU6="C",5,IF(AU6="D+",4,IF(AU6="D",3,IF(AU6="F",2,0))))))))))</f>
@@ -3775,9 +3529,7 @@
         <f>IF((BO6="O"),10, IF(BO6="A+",10, IF(BO6="A",9,IF(BO6="B+",8,IF(BO6="B",7, IF(BO6="C+",6,IF(BO6="C",5,IF(BO6="D+",4,IF(BO6="D",3,IF(BO6="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="BQ6" s="10">
-        <v>0</v>
-      </c>
+      <c r="BQ6" s="10"/>
       <c r="BR6" s="10">
         <v>0</v>
       </c>
@@ -3785,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="BT6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BU6" s="10">
         <f>IF((BT6="O"),10, IF(BT6="A+",10, IF(BT6="A",9,IF(BT6="B+",8,IF(BT6="B",7, IF(BT6="C+",6,IF(BT6="C",5,IF(BT6="D+",4,IF(BT6="D",3,IF(BT6="F",2,0))))))))))</f>
@@ -3847,9 +3599,7 @@
         <f>IF((DC6="O"),10, IF(DC6="A+",10, IF(DC6="A",9,IF(DC6="B+",8,IF(DC6="B",7, IF(DC6="C+",6,IF(DC6="C",5,IF(DC6="D+",4,IF(DC6="D",3,IF(DC6="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="DE6" s="10">
-        <v>0</v>
-      </c>
+      <c r="DE6" s="10"/>
       <c r="DF6" s="10">
         <v>0</v>
       </c>
@@ -3857,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="DH6" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="DI6" s="10">
         <f>IF((DH6="O"),10, IF(DH6="A+",10, IF(DH6="A",9,IF(DH6="B+",8,IF(DH6="B",7, IF(DH6="C+",6,IF(DH6="C",5,IF(DH6="D+",4,IF(DH6="D",3,IF(DH6="F",2,0))))))))))</f>
@@ -3919,9 +3669,7 @@
         <f>IF((EQ6="O"),10, IF(EQ6="A+",10, IF(EQ6="A",9,IF(EQ6="B+",8,IF(EQ6="B",7, IF(EQ6="C+",6,IF(EQ6="C",5,IF(EQ6="D+",4,IF(EQ6="D",3,IF(EQ6="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="ES6" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES6" s="10"/>
       <c r="ET6" s="10">
         <v>0</v>
       </c>
@@ -3929,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="EV6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EW6" s="10">
         <f>IF((EV6="O"),10, IF(EV6="A+",10, IF(EV6="A",9,IF(EV6="B+",8,IF(EV6="B",7, IF(EV6="C+",6,IF(EV6="C",5,IF(EV6="D+",4,IF(EV6="D",3,IF(EV6="F",2,0))))))))))</f>
@@ -4099,24 +3847,19 @@
       <c r="IR6" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="IS6" s="6" t="str">
-        <f>IF(B6='[1]VI sem'!B6,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS6" s="6"/>
     </row>
     <row r="7" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>3</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="10">
-        <v>0</v>
-      </c>
+      <c r="D7" s="10"/>
       <c r="E7" s="10">
         <v>0</v>
       </c>
@@ -4124,15 +3867,13 @@
         <v>0</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" ref="H7:H13" si="0">IF((G7="O"),10, IF(G7="A+",10, IF(G7="A",9,IF(G7="B+",8,IF(G7="B",7, IF(G7="C+",6,IF(G7="C",5,IF(G7="D+",4,IF(G7="D",3,IF(G7="F",2,0))))))))))</f>
         <v>7</v>
       </c>
-      <c r="I7" s="10">
-        <v>0</v>
-      </c>
+      <c r="I7" s="10"/>
       <c r="J7" s="10">
         <v>0</v>
       </c>
@@ -4140,7 +3881,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M7" s="10">
         <f t="shared" ref="M7:M13" si="1">IF((L7="O"),10, IF(L7="A+",10, IF(L7="A",9,IF(L7="B+",8,IF(L7="B",7, IF(L7="C+",6,IF(L7="C",5,IF(L7="D+",4,IF(L7="D",3,IF(L7="F",2,0))))))))))</f>
@@ -4210,9 +3951,7 @@
         <f t="shared" ref="BA7:BA13" si="9">IF((AZ7="O"),10, IF(AZ7="A+",10, IF(AZ7="A",9,IF(AZ7="B+",8,IF(AZ7="B",7, IF(AZ7="C+",6,IF(AZ7="C",5,IF(AZ7="D+",4,IF(AZ7="D",3,IF(AZ7="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="BB7" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB7" s="10"/>
       <c r="BC7" s="10">
         <v>0</v>
       </c>
@@ -4220,7 +3959,7 @@
         <v>0</v>
       </c>
       <c r="BE7" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BF7" s="10">
         <f t="shared" ref="BF7:BF13" si="10">IF((BE7="O"),10, IF(BE7="A+",10, IF(BE7="A",9,IF(BE7="B+",8,IF(BE7="B",7, IF(BE7="C+",6,IF(BE7="C",5,IF(BE7="D+",4,IF(BE7="D",3,IF(BE7="F",2,0))))))))))</f>
@@ -4242,9 +3981,7 @@
         <f t="shared" ref="BP7:BP13" si="12">IF((BO7="O"),10, IF(BO7="A+",10, IF(BO7="A",9,IF(BO7="B+",8,IF(BO7="B",7, IF(BO7="C+",6,IF(BO7="C",5,IF(BO7="D+",4,IF(BO7="D",3,IF(BO7="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="BQ7" s="10">
-        <v>0</v>
-      </c>
+      <c r="BQ7" s="10"/>
       <c r="BR7" s="10">
         <v>0</v>
       </c>
@@ -4252,7 +3989,7 @@
         <v>0</v>
       </c>
       <c r="BT7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BU7" s="10">
         <f t="shared" ref="BU7:BU13" si="13">IF((BT7="O"),10, IF(BT7="A+",10, IF(BT7="A",9,IF(BT7="B+",8,IF(BT7="B",7, IF(BT7="C+",6,IF(BT7="C",5,IF(BT7="D+",4,IF(BT7="D",3,IF(BT7="F",2,0))))))))))</f>
@@ -4314,9 +4051,7 @@
         <f t="shared" ref="DD7:DD13" si="20">IF((DC7="O"),10, IF(DC7="A+",10, IF(DC7="A",9,IF(DC7="B+",8,IF(DC7="B",7, IF(DC7="C+",6,IF(DC7="C",5,IF(DC7="D+",4,IF(DC7="D",3,IF(DC7="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="DE7" s="10">
-        <v>0</v>
-      </c>
+      <c r="DE7" s="10"/>
       <c r="DF7" s="10">
         <v>0</v>
       </c>
@@ -4324,7 +4059,7 @@
         <v>0</v>
       </c>
       <c r="DH7" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="DI7" s="10">
         <f t="shared" ref="DI7:DI13" si="21">IF((DH7="O"),10, IF(DH7="A+",10, IF(DH7="A",9,IF(DH7="B+",8,IF(DH7="B",7, IF(DH7="C+",6,IF(DH7="C",5,IF(DH7="D+",4,IF(DH7="D",3,IF(DH7="F",2,0))))))))))</f>
@@ -4386,9 +4121,7 @@
         <f t="shared" ref="ER7:ER13" si="28">IF((EQ7="O"),10, IF(EQ7="A+",10, IF(EQ7="A",9,IF(EQ7="B+",8,IF(EQ7="B",7, IF(EQ7="C+",6,IF(EQ7="C",5,IF(EQ7="D+",4,IF(EQ7="D",3,IF(EQ7="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="ES7" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES7" s="10"/>
       <c r="ET7" s="10">
         <v>0</v>
       </c>
@@ -4396,15 +4129,13 @@
         <v>0</v>
       </c>
       <c r="EV7" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="EW7" s="10">
         <f t="shared" ref="EW7:EW13" si="29">IF((EV7="O"),10, IF(EV7="A+",10, IF(EV7="A",9,IF(EV7="B+",8,IF(EV7="B",7, IF(EV7="C+",6,IF(EV7="C",5,IF(EV7="D+",4,IF(EV7="D",3,IF(EV7="F",2,0))))))))))</f>
         <v>8</v>
       </c>
-      <c r="EX7" s="10">
-        <v>0</v>
-      </c>
+      <c r="EX7" s="10"/>
       <c r="EY7" s="10">
         <v>0</v>
       </c>
@@ -4412,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="FA7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="FB7" s="10">
         <f t="shared" ref="FB7:FB13" si="30">IF((FA7="O"),10, IF(FA7="A+",10, IF(FA7="A",9,IF(FA7="B+",8,IF(FA7="B",7, IF(FA7="C+",6,IF(FA7="C",5,IF(FA7="D+",4,IF(FA7="D",3,IF(FA7="F",2,0))))))))))</f>
@@ -4574,23 +4305,20 @@
       <c r="IR7" s="10">
         <v>6.4</v>
       </c>
-      <c r="IS7" s="6" t="str">
-        <f>IF(B7='[1]VI sem'!B7,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS7" s="6"/>
     </row>
     <row r="8" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>4</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="10">
-        <v>0</v>
+      <c r="D8" s="10" t="s">
+        <v>120</v>
       </c>
       <c r="E8" s="10">
         <v>0</v>
@@ -4599,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="0"/>
@@ -4629,9 +4357,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X8" s="10">
-        <v>0</v>
-      </c>
+      <c r="X8" s="10"/>
       <c r="Y8" s="10">
         <v>0</v>
       </c>
@@ -4639,7 +4365,7 @@
         <v>0</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB8" s="10">
         <f t="shared" si="4"/>
@@ -4685,9 +4411,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BB8" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB8" s="10"/>
       <c r="BC8" s="10">
         <v>0</v>
       </c>
@@ -4695,7 +4419,7 @@
         <v>0</v>
       </c>
       <c r="BE8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BF8" s="10">
         <f t="shared" si="10"/>
@@ -4709,9 +4433,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BL8" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL8" s="10"/>
       <c r="BM8" s="10">
         <v>0</v>
       </c>
@@ -4719,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="BO8" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BP8" s="10">
         <f t="shared" si="12"/>
@@ -4773,9 +4495,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="CU8" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU8" s="10"/>
       <c r="CV8" s="10">
         <v>0</v>
       </c>
@@ -4783,7 +4503,7 @@
         <v>0</v>
       </c>
       <c r="CX8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CY8" s="10">
         <f t="shared" si="19"/>
@@ -5033,24 +4753,19 @@
       <c r="IR8" s="10">
         <v>8.1</v>
       </c>
-      <c r="IS8" s="6" t="str">
-        <f>IF(B8='[1]VI sem'!B8,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS8" s="6"/>
     </row>
     <row r="9" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>5</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="10">
-        <v>0</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="D9" s="10"/>
       <c r="E9" s="10">
         <v>0</v>
       </c>
@@ -5058,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H9" s="10">
         <f t="shared" si="0"/>
@@ -5080,9 +4795,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S9" s="10">
-        <v>0</v>
-      </c>
+      <c r="S9" s="10"/>
       <c r="T9" s="10">
         <v>0</v>
       </c>
@@ -5090,7 +4803,7 @@
         <v>0</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W9" s="10">
         <f t="shared" si="3"/>
@@ -5144,9 +4857,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BB9" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB9" s="10"/>
       <c r="BC9" s="10">
         <v>0</v>
       </c>
@@ -5154,7 +4865,7 @@
         <v>0</v>
       </c>
       <c r="BE9" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BF9" s="10">
         <f t="shared" si="10"/>
@@ -5168,9 +4879,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BL9" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL9" s="10"/>
       <c r="BM9" s="10">
         <v>0</v>
       </c>
@@ -5178,7 +4887,7 @@
         <v>0</v>
       </c>
       <c r="BO9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BP9" s="10">
         <f t="shared" si="12"/>
@@ -5248,9 +4957,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="DE9" s="10">
-        <v>0</v>
-      </c>
+      <c r="DE9" s="10"/>
       <c r="DF9" s="10">
         <v>0</v>
       </c>
@@ -5258,7 +4965,7 @@
         <v>0</v>
       </c>
       <c r="DH9" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="DI9" s="10">
         <f t="shared" si="21"/>
@@ -5288,9 +4995,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="DY9" s="10">
-        <v>0</v>
-      </c>
+      <c r="DY9" s="10"/>
       <c r="DZ9" s="10">
         <v>0</v>
       </c>
@@ -5298,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="EB9" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="EC9" s="10">
         <f t="shared" si="25"/>
@@ -5500,24 +5205,19 @@
       <c r="IR9" s="10">
         <v>6.7</v>
       </c>
-      <c r="IS9" s="6" t="str">
-        <f>IF(B9='[1]VI sem'!B9,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS9" s="6"/>
     </row>
     <row r="10" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>6</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="10">
-        <v>0</v>
-      </c>
+      <c r="D10" s="10"/>
       <c r="E10" s="10">
         <v>0</v>
       </c>
@@ -5525,7 +5225,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="0"/>
@@ -5547,9 +5247,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S10" s="10">
-        <v>0</v>
-      </c>
+      <c r="S10" s="10"/>
       <c r="T10" s="10">
         <v>0</v>
       </c>
@@ -5557,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="W10" s="10">
         <f t="shared" si="3"/>
@@ -5595,9 +5293,7 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AR10" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR10" s="10"/>
       <c r="AS10" s="10">
         <v>0</v>
       </c>
@@ -5605,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AV10" s="10">
         <f t="shared" si="8"/>
@@ -5747,9 +5443,7 @@
         <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="ED10" s="10">
-        <v>0</v>
-      </c>
+      <c r="ED10" s="10"/>
       <c r="EE10" s="10">
         <v>0</v>
       </c>
@@ -5757,7 +5451,7 @@
         <v>0</v>
       </c>
       <c r="EG10" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="EH10" s="10">
         <f t="shared" si="26"/>
@@ -5779,9 +5473,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="ES10" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES10" s="10"/>
       <c r="ET10" s="10">
         <v>0</v>
       </c>
@@ -5789,15 +5481,13 @@
         <v>0</v>
       </c>
       <c r="EV10" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EW10" s="10">
         <f t="shared" si="29"/>
         <v>7</v>
       </c>
-      <c r="EX10" s="10">
-        <v>0</v>
-      </c>
+      <c r="EX10" s="10"/>
       <c r="EY10" s="10">
         <v>0</v>
       </c>
@@ -5805,7 +5495,7 @@
         <v>0</v>
       </c>
       <c r="FA10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="FB10" s="10">
         <f t="shared" si="30"/>
@@ -5967,24 +5657,19 @@
       <c r="IR10" s="10">
         <v>7.2</v>
       </c>
-      <c r="IS10" s="6" t="str">
-        <f>IF(B10='[1]VI sem'!B10,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS10" s="6"/>
     </row>
     <row r="11" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0</v>
-      </c>
+      <c r="D11" s="10"/>
       <c r="E11" s="10">
         <v>0</v>
       </c>
@@ -5992,7 +5677,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H11" s="10">
         <f t="shared" si="0"/>
@@ -6014,9 +5699,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S11" s="10">
-        <v>0</v>
-      </c>
+      <c r="S11" s="10"/>
       <c r="T11" s="10">
         <v>0</v>
       </c>
@@ -6024,7 +5707,7 @@
         <v>0</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W11" s="10">
         <f t="shared" si="3"/>
@@ -6078,9 +5761,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BB11" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB11" s="10"/>
       <c r="BC11" s="10">
         <v>0</v>
       </c>
@@ -6088,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BF11" s="10">
         <f t="shared" si="10"/>
@@ -6158,9 +5839,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="CU11" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU11" s="10"/>
       <c r="CV11" s="10">
         <v>0</v>
       </c>
@@ -6168,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="CX11" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CY11" s="10">
         <f t="shared" si="19"/>
@@ -6214,9 +5893,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="DY11" s="10">
-        <v>0</v>
-      </c>
+      <c r="DY11" s="10"/>
       <c r="DZ11" s="10">
         <v>0</v>
       </c>
@@ -6224,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="EB11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="EC11" s="10">
         <f t="shared" si="25"/>
@@ -6246,9 +5923,7 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="EN11" s="10">
-        <v>0</v>
-      </c>
+      <c r="EN11" s="10"/>
       <c r="EO11" s="10">
         <v>0</v>
       </c>
@@ -6256,15 +5931,13 @@
         <v>0</v>
       </c>
       <c r="EQ11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="ER11" s="10">
         <f t="shared" si="28"/>
         <v>8</v>
       </c>
-      <c r="ES11" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES11" s="10"/>
       <c r="ET11" s="10">
         <v>0</v>
       </c>
@@ -6272,7 +5945,7 @@
         <v>0</v>
       </c>
       <c r="EV11" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="EW11" s="10">
         <f t="shared" si="29"/>
@@ -6442,24 +6115,19 @@
       <c r="IR11" s="10">
         <v>8.5</v>
       </c>
-      <c r="IS11" s="6" t="str">
-        <f>IF(B11='[1]VI sem'!B11,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS11" s="6"/>
     </row>
     <row r="12" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0</v>
-      </c>
+      <c r="D12" s="12"/>
       <c r="E12" s="12">
         <v>0</v>
       </c>
@@ -6467,7 +6135,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H12" s="12">
         <f t="shared" si="0"/>
@@ -6489,9 +6157,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="S12" s="12">
-        <v>0</v>
-      </c>
+      <c r="S12" s="12"/>
       <c r="T12" s="12">
         <v>0</v>
       </c>
@@ -6551,9 +6217,7 @@
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="BB12" s="12">
-        <v>0</v>
-      </c>
+      <c r="BB12" s="12"/>
       <c r="BC12" s="12">
         <v>0</v>
       </c>
@@ -6561,7 +6225,7 @@
         <v>0</v>
       </c>
       <c r="BE12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BF12" s="12">
         <f t="shared" si="10"/>
@@ -6575,9 +6239,7 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="BL12" s="12">
-        <v>0</v>
-      </c>
+      <c r="BL12" s="12"/>
       <c r="BM12" s="12">
         <v>0</v>
       </c>
@@ -6585,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="BO12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BP12" s="12">
         <f t="shared" si="12"/>
@@ -6639,9 +6301,7 @@
         <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="CU12" s="12">
-        <v>0</v>
-      </c>
+      <c r="CU12" s="12"/>
       <c r="CV12" s="12">
         <v>0</v>
       </c>
@@ -6649,7 +6309,7 @@
         <v>0</v>
       </c>
       <c r="CX12" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="CY12" s="12">
         <f t="shared" si="19"/>
@@ -6695,9 +6355,7 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="DY12" s="12">
-        <v>0</v>
-      </c>
+      <c r="DY12" s="12"/>
       <c r="DZ12" s="12">
         <v>0</v>
       </c>
@@ -6705,7 +6363,7 @@
         <v>0</v>
       </c>
       <c r="EB12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="EC12" s="12">
         <f t="shared" si="25"/>
@@ -6783,9 +6441,7 @@
         <f t="shared" si="34"/>
         <v>0</v>
       </c>
-      <c r="FW12" s="12">
-        <v>0</v>
-      </c>
+      <c r="FW12" s="12"/>
       <c r="FX12" s="12">
         <v>0</v>
       </c>
@@ -6793,7 +6449,7 @@
         <v>0</v>
       </c>
       <c r="FZ12" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="GA12" s="12">
         <f t="shared" si="35"/>
@@ -6915,24 +6571,19 @@
       <c r="IR12" s="12">
         <v>8.6999999999999993</v>
       </c>
-      <c r="IS12" s="6" t="str">
-        <f>IF(B12='[1]VI sem'!B12,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS12" s="6"/>
     </row>
     <row r="13" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>9</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="10">
-        <v>0</v>
-      </c>
+      <c r="D13" s="10"/>
       <c r="E13" s="10">
         <v>0</v>
       </c>
@@ -6940,7 +6591,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H13" s="10">
         <f t="shared" si="0"/>
@@ -6970,9 +6621,7 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="X13" s="10">
-        <v>0</v>
-      </c>
+      <c r="X13" s="10"/>
       <c r="Y13" s="10">
         <v>0</v>
       </c>
@@ -6980,7 +6629,7 @@
         <v>0</v>
       </c>
       <c r="AA13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB13" s="10">
         <f t="shared" si="4"/>
@@ -7114,9 +6763,7 @@
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="DE13" s="10">
-        <v>0</v>
-      </c>
+      <c r="DE13" s="10"/>
       <c r="DF13" s="10">
         <v>0</v>
       </c>
@@ -7124,7 +6771,7 @@
         <v>0</v>
       </c>
       <c r="DH13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="DI13" s="10">
         <f t="shared" si="21"/>
@@ -7138,9 +6785,7 @@
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="DO13" s="10">
-        <v>0</v>
-      </c>
+      <c r="DO13" s="10"/>
       <c r="DP13" s="10">
         <v>0</v>
       </c>
@@ -7148,7 +6793,7 @@
         <v>0</v>
       </c>
       <c r="DR13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="DS13" s="10">
         <f t="shared" si="23"/>
@@ -7194,9 +6839,7 @@
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="ES13" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES13" s="10"/>
       <c r="ET13" s="10">
         <v>0</v>
       </c>
@@ -7204,7 +6847,7 @@
         <v>0</v>
       </c>
       <c r="EV13" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="EW13" s="10">
         <f t="shared" si="29"/>
@@ -7234,9 +6877,7 @@
         <f t="shared" si="32"/>
         <v>0</v>
       </c>
-      <c r="FM13" s="10">
-        <v>0</v>
-      </c>
+      <c r="FM13" s="10"/>
       <c r="FN13" s="10">
         <v>0</v>
       </c>
@@ -7244,7 +6885,7 @@
         <v>0</v>
       </c>
       <c r="FP13" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="FQ13" s="10">
         <f t="shared" si="33"/>
@@ -7382,24 +7023,19 @@
       <c r="IR13" s="10">
         <v>8</v>
       </c>
-      <c r="IS13" s="6" t="str">
-        <f>IF(B13='[1]VI sem'!B13,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS13" s="6"/>
     </row>
     <row r="14" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>10</v>
       </c>
       <c r="B14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="D14" s="10">
-        <v>0</v>
-      </c>
+      <c r="D14" s="10"/>
       <c r="E14" s="10">
         <v>0</v>
       </c>
@@ -7407,7 +7043,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H14" s="10">
         <f>IF((G14="O"),10, IF(G14="A+",10, IF(G14="A",9,IF(G14="B+",8,IF(G14="B",7, IF(G14="C+",6,IF(G14="C",5,IF(G14="D+",4,IF(G14="D",3,IF(G14="F",2,0))))))))))</f>
@@ -7429,9 +7065,7 @@
         <f>IF((Q14="O"),10, IF(Q14="A+",10, IF(Q14="A",9,IF(Q14="B+",8,IF(Q14="B",7, IF(Q14="C+",6,IF(Q14="C",5,IF(Q14="D+",4,IF(Q14="D",3,IF(Q14="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="S14" s="10">
-        <v>0</v>
-      </c>
+      <c r="S14" s="10"/>
       <c r="T14" s="10">
         <v>0</v>
       </c>
@@ -7439,7 +7073,7 @@
         <v>0</v>
       </c>
       <c r="V14" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="W14" s="10">
         <f>IF((V14="O"),10, IF(V14="A+",10, IF(V14="A",9,IF(V14="B+",8,IF(V14="B",7, IF(V14="C+",6,IF(V14="C",5,IF(V14="D+",4,IF(V14="D",3,IF(V14="F",2,0))))))))))</f>
@@ -7461,9 +7095,7 @@
         <f>IF((AF14="O"),10, IF(AF14="A+",10, IF(AF14="A",9,IF(AF14="B+",8,IF(AF14="B",7, IF(AF14="C+",6,IF(AF14="C",5,IF(AF14="D+",4,IF(AF14="D",3,IF(AF14="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="10">
-        <v>0</v>
-      </c>
+      <c r="AH14" s="10"/>
       <c r="AI14" s="10">
         <v>0</v>
       </c>
@@ -7471,7 +7103,7 @@
         <v>0</v>
       </c>
       <c r="AK14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AL14" s="10">
         <f>IF((AK14="O"),10, IF(AK14="A+",10, IF(AK14="A",9,IF(AK14="B+",8,IF(AK14="B",7, IF(AK14="C+",6,IF(AK14="C",5,IF(AK14="D+",4,IF(AK14="D",3,IF(AK14="F",2,0))))))))))</f>
@@ -7565,9 +7197,7 @@
         <f>IF((CN14="O"),10, IF(CN14="A+",10, IF(CN14="A",9,IF(CN14="B+",8,IF(CN14="B",7, IF(CN14="C+",6,IF(CN14="C",5,IF(CN14="D+",4,IF(CN14="D",3,IF(CN14="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="CP14" s="10">
-        <v>0</v>
-      </c>
+      <c r="CP14" s="10"/>
       <c r="CQ14" s="10">
         <v>0</v>
       </c>
@@ -7575,7 +7205,7 @@
         <v>0</v>
       </c>
       <c r="CS14" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="CT14" s="10">
         <f>IF((CS14="O"),10, IF(CS14="A+",10, IF(CS14="A",9,IF(CS14="B+",8,IF(CS14="B",7, IF(CS14="C+",6,IF(CS14="C",5,IF(CS14="D+",4,IF(CS14="D",3,IF(CS14="F",2,0))))))))))</f>
@@ -7645,9 +7275,7 @@
         <f>IF((EG14="O"),10, IF(EG14="A+",10, IF(EG14="A",9,IF(EG14="B+",8,IF(EG14="B",7, IF(EG14="C+",6,IF(EG14="C",5,IF(EG14="D+",4,IF(EG14="D",3,IF(EG14="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="EI14" s="10">
-        <v>0</v>
-      </c>
+      <c r="EI14" s="10"/>
       <c r="EJ14" s="10">
         <v>0</v>
       </c>
@@ -7655,7 +7283,7 @@
         <v>0</v>
       </c>
       <c r="EL14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="EM14" s="10">
         <f>IF((EL14="O"),10, IF(EL14="A+",10, IF(EL14="A",9,IF(EL14="B+",8,IF(EL14="B",7, IF(EL14="C+",6,IF(EL14="C",5,IF(EL14="D+",4,IF(EL14="D",3,IF(EL14="F",2,0))))))))))</f>
@@ -7821,9 +7449,7 @@
         <f>IF((IH14="O"),10, IF(IH14="A+",10, IF(IH14="A",9,IF(IH14="B+",8,IF(IH14="B",7, IF(IH14="C+",6,IF(IH14="C",5,IF(IH14="D+",4,IF(IH14="D",3,IF(IH14="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="IJ14" s="10">
-        <v>0</v>
-      </c>
+      <c r="IJ14" s="10"/>
       <c r="IK14" s="10">
         <v>0</v>
       </c>
@@ -7831,7 +7457,7 @@
         <v>0</v>
       </c>
       <c r="IM14" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="IN14" s="10">
         <f>IF((IM14="O"),10, IF(IM14="A+",10, IF(IM14="A",9,IF(IM14="B+",8,IF(IM14="B",7, IF(IM14="C+",6,IF(IM14="C",5,IF(IM14="D+",4,IF(IM14="D",3,IF(IM14="F",2,0))))))))))</f>
@@ -7849,24 +7475,19 @@
       <c r="IR14" s="10">
         <v>5.3</v>
       </c>
-      <c r="IS14" s="6" t="str">
-        <f>IF(B14='[1]VI sem'!B14,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS14" s="6"/>
     </row>
     <row r="15" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>11</v>
       </c>
       <c r="B15" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="10">
-        <v>0</v>
-      </c>
+      <c r="D15" s="10"/>
       <c r="E15" s="10">
         <v>0</v>
       </c>
@@ -7874,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="10">
         <f t="shared" ref="H15:H43" si="49">IF((G15="O"),10, IF(G15="A+",10, IF(G15="A",9,IF(G15="B+",8,IF(G15="B",7, IF(G15="C+",6,IF(G15="C",5,IF(G15="D+",4,IF(G15="D",3,IF(G15="F",2,0))))))))))</f>
@@ -7896,9 +7517,7 @@
         <f t="shared" ref="R15:R43" si="51">IF((Q15="O"),10, IF(Q15="A+",10, IF(Q15="A",9,IF(Q15="B+",8,IF(Q15="B",7, IF(Q15="C+",6,IF(Q15="C",5,IF(Q15="D+",4,IF(Q15="D",3,IF(Q15="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="S15" s="10">
-        <v>0</v>
-      </c>
+      <c r="S15" s="10"/>
       <c r="T15" s="10">
         <v>0</v>
       </c>
@@ -7906,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W15" s="10">
         <f t="shared" ref="W15:W43" si="52">IF((V15="O"),10, IF(V15="A+",10, IF(V15="A",9,IF(V15="B+",8,IF(V15="B",7, IF(V15="C+",6,IF(V15="C",5,IF(V15="D+",4,IF(V15="D",3,IF(V15="F",2,0))))))))))</f>
@@ -7928,9 +7547,7 @@
         <f t="shared" ref="AG15:AG43" si="54">IF((AF15="O"),10, IF(AF15="A+",10, IF(AF15="A",9,IF(AF15="B+",8,IF(AF15="B",7, IF(AF15="C+",6,IF(AF15="C",5,IF(AF15="D+",4,IF(AF15="D",3,IF(AF15="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="10">
-        <v>0</v>
-      </c>
+      <c r="AH15" s="10"/>
       <c r="AI15" s="10">
         <v>0</v>
       </c>
@@ -7938,7 +7555,7 @@
         <v>0</v>
       </c>
       <c r="AK15" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL15" s="10">
         <f t="shared" ref="AL15:AL43" si="55">IF((AK15="O"),10, IF(AK15="A+",10, IF(AK15="A",9,IF(AK15="B+",8,IF(AK15="B",7, IF(AK15="C+",6,IF(AK15="C",5,IF(AK15="D+",4,IF(AK15="D",3,IF(AK15="F",2,0))))))))))</f>
@@ -8120,9 +7737,7 @@
         <f t="shared" ref="ER15:ER43" si="77">IF((EQ15="O"),10, IF(EQ15="A+",10, IF(EQ15="A",9,IF(EQ15="B+",8,IF(EQ15="B",7, IF(EQ15="C+",6,IF(EQ15="C",5,IF(EQ15="D+",4,IF(EQ15="D",3,IF(EQ15="F",2,0))))))))))</f>
         <v>0</v>
       </c>
-      <c r="ES15" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES15" s="10"/>
       <c r="ET15" s="10">
         <v>0</v>
       </c>
@@ -8130,15 +7745,13 @@
         <v>0</v>
       </c>
       <c r="EV15" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="EW15" s="10">
         <f t="shared" ref="EW15:EW43" si="78">IF((EV15="O"),10, IF(EV15="A+",10, IF(EV15="A",9,IF(EV15="B+",8,IF(EV15="B",7, IF(EV15="C+",6,IF(EV15="C",5,IF(EV15="D+",4,IF(EV15="D",3,IF(EV15="F",2,0))))))))))</f>
         <v>8</v>
       </c>
-      <c r="EX15" s="10">
-        <v>0</v>
-      </c>
+      <c r="EX15" s="10"/>
       <c r="EY15" s="10">
         <v>0</v>
       </c>
@@ -8146,7 +7759,7 @@
         <v>0</v>
       </c>
       <c r="FA15" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="FB15" s="10">
         <f t="shared" ref="FB15:FB43" si="79">IF((FA15="O"),10, IF(FA15="A+",10, IF(FA15="A",9,IF(FA15="B+",8,IF(FA15="B",7, IF(FA15="C+",6,IF(FA15="C",5,IF(FA15="D+",4,IF(FA15="D",3,IF(FA15="F",2,0))))))))))</f>
@@ -8308,24 +7921,19 @@
       <c r="IR15" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="IS15" s="6" t="str">
-        <f>IF(B15='[1]VI sem'!B15,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS15" s="6"/>
     </row>
     <row r="16" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>12</v>
       </c>
       <c r="B16" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="10">
-        <v>0</v>
-      </c>
+      <c r="D16" s="10"/>
       <c r="E16" s="10">
         <v>0</v>
       </c>
@@ -8333,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H16" s="10">
         <f t="shared" si="49"/>
@@ -8355,9 +7963,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S16" s="10">
-        <v>0</v>
-      </c>
+      <c r="S16" s="10"/>
       <c r="T16" s="10">
         <v>0</v>
       </c>
@@ -8365,7 +7971,7 @@
         <v>0</v>
       </c>
       <c r="V16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W16" s="10">
         <f t="shared" si="52"/>
@@ -8395,9 +8001,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AM16" s="10">
-        <v>0</v>
-      </c>
+      <c r="AM16" s="10"/>
       <c r="AN16" s="10">
         <v>0</v>
       </c>
@@ -8405,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AQ16" s="10">
         <f t="shared" si="56"/>
@@ -8451,9 +8055,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="BQ16" s="10">
-        <v>0</v>
-      </c>
+      <c r="BQ16" s="10"/>
       <c r="BR16" s="10">
         <v>0</v>
       </c>
@@ -8461,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="BT16" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BU16" s="10">
         <f t="shared" si="62"/>
@@ -8587,9 +8189,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES16" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES16" s="10"/>
       <c r="ET16" s="10">
         <v>0</v>
       </c>
@@ -8597,15 +8197,13 @@
         <v>0</v>
       </c>
       <c r="EV16" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="EW16" s="10">
         <f t="shared" si="78"/>
         <v>8</v>
       </c>
-      <c r="EX16" s="10">
-        <v>0</v>
-      </c>
+      <c r="EX16" s="10"/>
       <c r="EY16" s="10">
         <v>0</v>
       </c>
@@ -8613,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="FA16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="FB16" s="10">
         <f t="shared" si="79"/>
@@ -8775,24 +8373,19 @@
       <c r="IR16" s="10">
         <v>8</v>
       </c>
-      <c r="IS16" s="6" t="str">
-        <f>IF(B16='[1]VI sem'!B16,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS16" s="6"/>
     </row>
     <row r="17" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>13</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="D17" s="10">
-        <v>0</v>
-      </c>
+      <c r="D17" s="10"/>
       <c r="E17" s="10">
         <v>0</v>
       </c>
@@ -8800,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H17" s="10">
         <f t="shared" si="49"/>
@@ -8822,9 +8415,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S17" s="10">
-        <v>0</v>
-      </c>
+      <c r="S17" s="10"/>
       <c r="T17" s="10">
         <v>0</v>
       </c>
@@ -8832,7 +8423,7 @@
         <v>0</v>
       </c>
       <c r="V17" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W17" s="10">
         <f t="shared" si="52"/>
@@ -8958,9 +8549,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU17" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU17" s="10"/>
       <c r="CV17" s="10">
         <v>0</v>
       </c>
@@ -8968,7 +8557,7 @@
         <v>0</v>
       </c>
       <c r="CX17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CY17" s="10">
         <f t="shared" si="68"/>
@@ -8998,9 +8587,7 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DO17" s="10">
-        <v>0</v>
-      </c>
+      <c r="DO17" s="10"/>
       <c r="DP17" s="10">
         <v>0</v>
       </c>
@@ -9008,7 +8595,7 @@
         <v>0</v>
       </c>
       <c r="DR17" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="DS17" s="10">
         <f t="shared" si="72"/>
@@ -9062,9 +8649,7 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="EX17" s="10">
-        <v>0</v>
-      </c>
+      <c r="EX17" s="10"/>
       <c r="EY17" s="10">
         <v>0</v>
       </c>
@@ -9072,7 +8657,7 @@
         <v>0</v>
       </c>
       <c r="FA17" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="FB17" s="10">
         <f t="shared" si="79"/>
@@ -9094,9 +8679,7 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="FM17" s="10">
-        <v>0</v>
-      </c>
+      <c r="FM17" s="10"/>
       <c r="FN17" s="10">
         <v>0</v>
       </c>
@@ -9104,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="FP17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="FQ17" s="10">
         <f t="shared" si="82"/>
@@ -9242,24 +8825,19 @@
       <c r="IR17" s="10">
         <v>8.3000000000000007</v>
       </c>
-      <c r="IS17" s="6" t="str">
-        <f>IF(B17='[1]VI sem'!B17,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS17" s="6"/>
     </row>
     <row r="18" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
         <v>14</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C18" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="10">
-        <v>0</v>
-      </c>
+      <c r="D18" s="10"/>
       <c r="E18" s="10">
         <v>0</v>
       </c>
@@ -9267,7 +8845,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H18" s="10">
         <f t="shared" si="49"/>
@@ -9329,9 +8907,7 @@
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AR18" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR18" s="10"/>
       <c r="AS18" s="10">
         <v>0</v>
       </c>
@@ -9339,7 +8915,7 @@
         <v>0</v>
       </c>
       <c r="AU18" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AV18" s="10">
         <f t="shared" si="57"/>
@@ -9417,9 +8993,7 @@
         <f t="shared" si="66"/>
         <v>0</v>
       </c>
-      <c r="CP18" s="10">
-        <v>0</v>
-      </c>
+      <c r="CP18" s="10"/>
       <c r="CQ18" s="10">
         <v>0</v>
       </c>
@@ -9427,7 +9001,7 @@
         <v>0</v>
       </c>
       <c r="CS18" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CT18" s="10">
         <f t="shared" si="67"/>
@@ -9513,9 +9087,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES18" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES18" s="10"/>
       <c r="ET18" s="10">
         <v>0</v>
       </c>
@@ -9523,15 +9095,13 @@
         <v>0</v>
       </c>
       <c r="EV18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EW18" s="10">
         <f t="shared" si="78"/>
         <v>6</v>
       </c>
-      <c r="EX18" s="10">
-        <v>0</v>
-      </c>
+      <c r="EX18" s="10"/>
       <c r="EY18" s="10">
         <v>0</v>
       </c>
@@ -9539,7 +9109,7 @@
         <v>0</v>
       </c>
       <c r="FA18" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="FB18" s="10">
         <f t="shared" si="79"/>
@@ -9601,9 +9171,7 @@
         <f t="shared" si="86"/>
         <v>0</v>
       </c>
-      <c r="GL18" s="10">
-        <v>0</v>
-      </c>
+      <c r="GL18" s="10"/>
       <c r="GM18" s="10">
         <v>0</v>
       </c>
@@ -9611,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="GO18" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GP18" s="10">
         <f t="shared" si="87"/>
@@ -9709,24 +9277,19 @@
       <c r="IR18" s="10">
         <v>7</v>
       </c>
-      <c r="IS18" s="6" t="str">
-        <f>IF(B18='[1]VI sem'!B18,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS18" s="6"/>
     </row>
     <row r="19" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A19" s="10">
         <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="10">
-        <v>0</v>
-      </c>
+      <c r="D19" s="10"/>
       <c r="E19" s="10">
         <v>0</v>
       </c>
@@ -9734,7 +9297,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H19" s="10">
         <f t="shared" si="49"/>
@@ -9764,9 +9327,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X19" s="10">
-        <v>0</v>
-      </c>
+      <c r="X19" s="10"/>
       <c r="Y19" s="10">
         <v>0</v>
       </c>
@@ -9774,7 +9335,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB19" s="10">
         <f t="shared" si="53"/>
@@ -9908,9 +9469,7 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="DE19" s="10">
-        <v>0</v>
-      </c>
+      <c r="DE19" s="10"/>
       <c r="DF19" s="10">
         <v>0</v>
       </c>
@@ -9918,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="DH19" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="DI19" s="10">
         <f t="shared" si="70"/>
@@ -9932,9 +9491,7 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DO19" s="10">
-        <v>0</v>
-      </c>
+      <c r="DO19" s="10"/>
       <c r="DP19" s="10">
         <v>0</v>
       </c>
@@ -9942,7 +9499,7 @@
         <v>0</v>
       </c>
       <c r="DR19" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="DS19" s="10">
         <f t="shared" si="72"/>
@@ -9988,9 +9545,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES19" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES19" s="10"/>
       <c r="ET19" s="10">
         <v>0</v>
       </c>
@@ -9998,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="EV19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EW19" s="10">
         <f t="shared" si="78"/>
@@ -10028,9 +9583,7 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="FM19" s="10">
-        <v>0</v>
-      </c>
+      <c r="FM19" s="10"/>
       <c r="FN19" s="10">
         <v>0</v>
       </c>
@@ -10038,7 +9591,7 @@
         <v>0</v>
       </c>
       <c r="FP19" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="FQ19" s="10">
         <f t="shared" si="82"/>
@@ -10176,24 +9729,19 @@
       <c r="IR19" s="10">
         <v>6.7</v>
       </c>
-      <c r="IS19" s="6" t="str">
-        <f>IF(B19='[1]VI sem'!B19,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS19" s="6"/>
     </row>
     <row r="20" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A20" s="10">
         <v>16</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C20" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D20" s="10">
-        <v>0</v>
-      </c>
+      <c r="D20" s="10"/>
       <c r="E20" s="10">
         <v>0</v>
       </c>
@@ -10201,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H20" s="10">
         <f t="shared" si="49"/>
@@ -10239,9 +9787,7 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="AC20" s="10">
-        <v>0</v>
-      </c>
+      <c r="AC20" s="10"/>
       <c r="AD20" s="10">
         <v>0</v>
       </c>
@@ -10249,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG20" s="10">
         <f t="shared" si="54"/>
@@ -10287,9 +9833,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="BB20" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB20" s="10"/>
       <c r="BC20" s="10">
         <v>0</v>
       </c>
@@ -10297,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="BE20" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BF20" s="10">
         <f t="shared" si="59"/>
@@ -10311,9 +9855,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="BL20" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL20" s="10"/>
       <c r="BM20" s="10">
         <v>0</v>
       </c>
@@ -10321,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="BO20" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BP20" s="10">
         <f t="shared" si="61"/>
@@ -10463,9 +10005,7 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="EX20" s="10">
-        <v>0</v>
-      </c>
+      <c r="EX20" s="10"/>
       <c r="EY20" s="10">
         <v>0</v>
       </c>
@@ -10473,7 +10013,7 @@
         <v>0</v>
       </c>
       <c r="FA20" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="FB20" s="10">
         <f t="shared" si="79"/>
@@ -10635,24 +10175,19 @@
       <c r="IR20" s="10">
         <v>8</v>
       </c>
-      <c r="IS20" s="6" t="str">
-        <f>IF(B20='[1]VI sem'!B20,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS20" s="6"/>
     </row>
     <row r="21" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A21" s="10">
         <v>17</v>
       </c>
       <c r="B21" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0</v>
-      </c>
+      <c r="D21" s="10"/>
       <c r="E21" s="10">
         <v>0</v>
       </c>
@@ -10660,7 +10195,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" si="49"/>
@@ -10690,9 +10225,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X21" s="10">
-        <v>0</v>
-      </c>
+      <c r="X21" s="10"/>
       <c r="Y21" s="10">
         <v>0</v>
       </c>
@@ -10700,7 +10233,7 @@
         <v>0</v>
       </c>
       <c r="AA21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB21" s="10">
         <f t="shared" si="53"/>
@@ -10746,9 +10279,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="BB21" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB21" s="10"/>
       <c r="BC21" s="10">
         <v>0</v>
       </c>
@@ -10756,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="BE21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BF21" s="10">
         <f t="shared" si="59"/>
@@ -10770,9 +10301,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="BL21" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL21" s="10"/>
       <c r="BM21" s="10">
         <v>0</v>
       </c>
@@ -10780,7 +10309,7 @@
         <v>0</v>
       </c>
       <c r="BO21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BP21" s="10">
         <f t="shared" si="61"/>
@@ -10834,9 +10363,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU21" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU21" s="10"/>
       <c r="CV21" s="10">
         <v>0</v>
       </c>
@@ -10844,7 +10371,7 @@
         <v>0</v>
       </c>
       <c r="CX21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CY21" s="10">
         <f t="shared" si="68"/>
@@ -10922,9 +10449,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES21" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES21" s="10"/>
       <c r="ET21" s="10">
         <v>0</v>
       </c>
@@ -10932,7 +10457,7 @@
         <v>0</v>
       </c>
       <c r="EV21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EW21" s="10">
         <f t="shared" si="78"/>
@@ -10962,9 +10487,7 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="FM21" s="10">
-        <v>0</v>
-      </c>
+      <c r="FM21" s="10"/>
       <c r="FN21" s="10">
         <v>0</v>
       </c>
@@ -10972,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="FP21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="FQ21" s="10">
         <f t="shared" si="82"/>
@@ -11110,24 +10633,19 @@
       <c r="IR21" s="10">
         <v>7.8</v>
       </c>
-      <c r="IS21" s="6" t="str">
-        <f>IF(B21='[1]VI sem'!B21,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS21" s="6"/>
     </row>
     <row r="22" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A22" s="10">
         <v>18</v>
       </c>
       <c r="B22" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C22" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="D22" s="10">
-        <v>0</v>
-      </c>
+      <c r="D22" s="10"/>
       <c r="E22" s="10">
         <v>0</v>
       </c>
@@ -11135,7 +10653,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H22" s="10">
         <f t="shared" si="49"/>
@@ -11173,9 +10691,7 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="AC22" s="10">
-        <v>0</v>
-      </c>
+      <c r="AC22" s="10"/>
       <c r="AD22" s="10">
         <v>0</v>
       </c>
@@ -11183,7 +10699,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG22" s="10">
         <f t="shared" si="54"/>
@@ -11197,9 +10713,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AM22" s="10">
-        <v>0</v>
-      </c>
+      <c r="AM22" s="10"/>
       <c r="AN22" s="10">
         <v>0</v>
       </c>
@@ -11207,7 +10721,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ22" s="10">
         <f t="shared" si="56"/>
@@ -11309,9 +10823,7 @@
         <f t="shared" si="68"/>
         <v>0</v>
       </c>
-      <c r="CZ22" s="10">
-        <v>0</v>
-      </c>
+      <c r="CZ22" s="10"/>
       <c r="DA22" s="10">
         <v>0</v>
       </c>
@@ -11319,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="DC22" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="DD22" s="10">
         <f t="shared" si="69"/>
@@ -11341,9 +10853,7 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DO22" s="10">
-        <v>0</v>
-      </c>
+      <c r="DO22" s="10"/>
       <c r="DP22" s="10">
         <v>0</v>
       </c>
@@ -11351,7 +10861,7 @@
         <v>0</v>
       </c>
       <c r="DR22" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="DS22" s="10">
         <f t="shared" si="72"/>
@@ -11569,24 +11079,19 @@
       <c r="IR22" s="10">
         <v>8.1</v>
       </c>
-      <c r="IS22" s="6" t="str">
-        <f>IF(B22='[1]VI sem'!B22,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS22" s="6"/>
     </row>
     <row r="23" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>19</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="10">
-        <v>0</v>
-      </c>
+      <c r="D23" s="10"/>
       <c r="E23" s="10">
         <v>0</v>
       </c>
@@ -11594,7 +11099,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H23" s="10">
         <f t="shared" si="49"/>
@@ -11616,9 +11121,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S23" s="10">
-        <v>0</v>
-      </c>
+      <c r="S23" s="10"/>
       <c r="T23" s="10">
         <v>0</v>
       </c>
@@ -11626,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W23" s="10">
         <f t="shared" si="52"/>
@@ -11656,9 +11159,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AM23" s="10">
-        <v>0</v>
-      </c>
+      <c r="AM23" s="10"/>
       <c r="AN23" s="10">
         <v>0</v>
       </c>
@@ -11666,7 +11167,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ23" s="10">
         <f t="shared" si="56"/>
@@ -11712,9 +11213,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="BQ23" s="10">
-        <v>0</v>
-      </c>
+      <c r="BQ23" s="10"/>
       <c r="BR23" s="10">
         <v>0</v>
       </c>
@@ -11722,7 +11221,7 @@
         <v>0</v>
       </c>
       <c r="BT23" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BU23" s="10">
         <f t="shared" si="62"/>
@@ -11816,9 +11315,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="DY23" s="10">
-        <v>0</v>
-      </c>
+      <c r="DY23" s="10"/>
       <c r="DZ23" s="10">
         <v>0</v>
       </c>
@@ -11826,7 +11323,7 @@
         <v>0</v>
       </c>
       <c r="EB23" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="EC23" s="10">
         <f t="shared" si="74"/>
@@ -11864,9 +11361,7 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="EX23" s="10">
-        <v>0</v>
-      </c>
+      <c r="EX23" s="10"/>
       <c r="EY23" s="10">
         <v>0</v>
       </c>
@@ -11874,7 +11369,7 @@
         <v>0</v>
       </c>
       <c r="FA23" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="FB23" s="10">
         <f t="shared" si="79"/>
@@ -11896,9 +11391,7 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="FM23" s="10">
-        <v>0</v>
-      </c>
+      <c r="FM23" s="10"/>
       <c r="FN23" s="10">
         <v>0</v>
       </c>
@@ -11906,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="FP23" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="FQ23" s="10">
         <f t="shared" si="82"/>
@@ -12044,24 +11537,19 @@
       <c r="IR23" s="10">
         <v>7.4</v>
       </c>
-      <c r="IS23" s="6" t="str">
-        <f>IF(B23='[1]VI sem'!B23,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS23" s="6"/>
     </row>
     <row r="24" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>20</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="D24" s="10">
-        <v>0</v>
-      </c>
+      <c r="D24" s="10"/>
       <c r="E24" s="10">
         <v>0</v>
       </c>
@@ -12069,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H24" s="10">
         <f t="shared" si="49"/>
@@ -12091,9 +11579,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S24" s="10">
-        <v>0</v>
-      </c>
+      <c r="S24" s="10"/>
       <c r="T24" s="10">
         <v>0</v>
       </c>
@@ -12101,7 +11587,7 @@
         <v>0</v>
       </c>
       <c r="V24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W24" s="10">
         <f t="shared" si="52"/>
@@ -12123,9 +11609,7 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AH24" s="10">
-        <v>0</v>
-      </c>
+      <c r="AH24" s="10"/>
       <c r="AI24" s="10">
         <v>0</v>
       </c>
@@ -12133,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="AK24" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AL24" s="10">
         <f t="shared" si="55"/>
@@ -12195,9 +11679,7 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="BV24" s="10">
-        <v>0</v>
-      </c>
+      <c r="BV24" s="10"/>
       <c r="BW24" s="10">
         <v>0</v>
       </c>
@@ -12205,7 +11687,7 @@
         <v>0</v>
       </c>
       <c r="BY24" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BZ24" s="10">
         <f t="shared" si="63"/>
@@ -12227,9 +11709,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="CK24" s="10">
-        <v>0</v>
-      </c>
+      <c r="CK24" s="10"/>
       <c r="CL24" s="10">
         <v>0</v>
       </c>
@@ -12237,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="CN24" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CO24" s="10">
         <f t="shared" si="66"/>
@@ -12299,9 +11779,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="DY24" s="10">
-        <v>0</v>
-      </c>
+      <c r="DY24" s="10"/>
       <c r="DZ24" s="10">
         <v>0</v>
       </c>
@@ -12309,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="EB24" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EC24" s="10">
         <f t="shared" si="74"/>
@@ -12347,9 +11825,7 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="EX24" s="10">
-        <v>0</v>
-      </c>
+      <c r="EX24" s="10"/>
       <c r="EY24" s="10">
         <v>0</v>
       </c>
@@ -12357,7 +11833,7 @@
         <v>0</v>
       </c>
       <c r="FA24" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="FB24" s="10">
         <f t="shared" si="79"/>
@@ -12443,9 +11919,7 @@
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="HA24" s="10">
-        <v>0</v>
-      </c>
+      <c r="HA24" s="10"/>
       <c r="HB24" s="10">
         <v>0</v>
       </c>
@@ -12453,7 +11927,7 @@
         <v>0</v>
       </c>
       <c r="HD24" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HE24" s="10">
         <f t="shared" si="90"/>
@@ -12527,24 +12001,19 @@
       <c r="IR24" s="10">
         <v>8.6999999999999993</v>
       </c>
-      <c r="IS24" s="6" t="str">
-        <f>IF(B24='[1]VI sem'!B24,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS24" s="6"/>
     </row>
     <row r="25" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>22</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C25" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="D25" s="10">
-        <v>0</v>
-      </c>
+      <c r="D25" s="10"/>
       <c r="E25" s="10">
         <v>0</v>
       </c>
@@ -12552,7 +12021,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" si="49"/>
@@ -12582,9 +12051,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X25" s="10">
-        <v>0</v>
-      </c>
+      <c r="X25" s="10"/>
       <c r="Y25" s="10">
         <v>0</v>
       </c>
@@ -12592,7 +12059,7 @@
         <v>0</v>
       </c>
       <c r="AA25" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AB25" s="10">
         <f t="shared" si="53"/>
@@ -12638,9 +12105,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="BB25" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB25" s="10"/>
       <c r="BC25" s="10">
         <v>0</v>
       </c>
@@ -12648,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="BE25" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BF25" s="10">
         <f t="shared" si="59"/>
@@ -12662,9 +12127,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="BL25" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL25" s="10"/>
       <c r="BM25" s="10">
         <v>0</v>
       </c>
@@ -12672,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="BO25" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BP25" s="10">
         <f t="shared" si="61"/>
@@ -12726,9 +12189,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU25" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU25" s="10"/>
       <c r="CV25" s="10">
         <v>0</v>
       </c>
@@ -12736,7 +12197,7 @@
         <v>0</v>
       </c>
       <c r="CX25" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CY25" s="10">
         <f t="shared" si="68"/>
@@ -12782,9 +12243,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="DY25" s="10">
-        <v>0</v>
-      </c>
+      <c r="DY25" s="10"/>
       <c r="DZ25" s="10">
         <v>0</v>
       </c>
@@ -12792,7 +12251,7 @@
         <v>0</v>
       </c>
       <c r="EB25" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="EC25" s="10">
         <f t="shared" si="74"/>
@@ -12994,24 +12453,19 @@
       <c r="IR25" s="10">
         <v>8.6</v>
       </c>
-      <c r="IS25" s="6" t="str">
-        <f>IF(B25='[1]VI sem'!B25,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS25" s="6"/>
     </row>
     <row r="26" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>23</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="D26" s="10">
-        <v>0</v>
-      </c>
+      <c r="D26" s="10"/>
       <c r="E26" s="10">
         <v>0</v>
       </c>
@@ -13019,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="10">
         <f t="shared" si="49"/>
@@ -13057,9 +12511,7 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="AC26" s="10">
-        <v>0</v>
-      </c>
+      <c r="AC26" s="10"/>
       <c r="AD26" s="10">
         <v>0</v>
       </c>
@@ -13067,7 +12519,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AG26" s="10">
         <f t="shared" si="54"/>
@@ -13105,9 +12557,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="BB26" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB26" s="10"/>
       <c r="BC26" s="10">
         <v>0</v>
       </c>
@@ -13115,7 +12565,7 @@
         <v>0</v>
       </c>
       <c r="BE26" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BF26" s="10">
         <f t="shared" si="59"/>
@@ -13185,9 +12635,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU26" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU26" s="10"/>
       <c r="CV26" s="10">
         <v>0</v>
       </c>
@@ -13195,7 +12643,7 @@
         <v>0</v>
       </c>
       <c r="CX26" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CY26" s="10">
         <f t="shared" si="68"/>
@@ -13273,9 +12721,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES26" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES26" s="10"/>
       <c r="ET26" s="10">
         <v>0</v>
       </c>
@@ -13283,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="EV26" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="EW26" s="10">
         <f t="shared" si="78"/>
@@ -13305,9 +12751,7 @@
         <f t="shared" si="80"/>
         <v>0</v>
       </c>
-      <c r="FH26" s="10">
-        <v>0</v>
-      </c>
+      <c r="FH26" s="10"/>
       <c r="FI26" s="10">
         <v>0</v>
       </c>
@@ -13315,7 +12759,7 @@
         <v>0</v>
       </c>
       <c r="FK26" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="FL26" s="10">
         <f t="shared" si="81"/>
@@ -13461,24 +12905,19 @@
       <c r="IR26" s="10">
         <v>9</v>
       </c>
-      <c r="IS26" s="6" t="str">
-        <f>IF(B26='[1]VI sem'!B26,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS26" s="6"/>
     </row>
     <row r="27" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>24</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D27" s="10">
-        <v>0</v>
-      </c>
+      <c r="D27" s="10"/>
       <c r="E27" s="10">
         <v>0</v>
       </c>
@@ -13486,7 +12925,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="49"/>
@@ -13516,9 +12955,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X27" s="10">
-        <v>0</v>
-      </c>
+      <c r="X27" s="10"/>
       <c r="Y27" s="10">
         <v>0</v>
       </c>
@@ -13526,7 +12963,7 @@
         <v>0</v>
       </c>
       <c r="AA27" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB27" s="10">
         <f t="shared" si="53"/>
@@ -13540,9 +12977,7 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AH27" s="10">
-        <v>0</v>
-      </c>
+      <c r="AH27" s="10"/>
       <c r="AI27" s="10">
         <v>0</v>
       </c>
@@ -13550,7 +12985,7 @@
         <v>0</v>
       </c>
       <c r="AK27" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AL27" s="10">
         <f t="shared" si="55"/>
@@ -13596,9 +13031,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="BL27" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL27" s="10"/>
       <c r="BM27" s="10">
         <v>0</v>
       </c>
@@ -13606,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="BO27" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BP27" s="10">
         <f t="shared" si="61"/>
@@ -13660,9 +13093,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU27" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU27" s="10"/>
       <c r="CV27" s="10">
         <v>0</v>
       </c>
@@ -13670,7 +13101,7 @@
         <v>0</v>
       </c>
       <c r="CX27" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CY27" s="10">
         <f t="shared" si="68"/>
@@ -13692,9 +13123,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DJ27" s="10">
-        <v>0</v>
-      </c>
+      <c r="DJ27" s="10"/>
       <c r="DK27" s="10">
         <v>0</v>
       </c>
@@ -13702,7 +13131,7 @@
         <v>0</v>
       </c>
       <c r="DM27" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="DN27" s="10">
         <f t="shared" si="71"/>
@@ -13756,9 +13185,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES27" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES27" s="10"/>
       <c r="ET27" s="10">
         <v>0</v>
       </c>
@@ -13766,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="EV27" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EW27" s="10">
         <f t="shared" si="78"/>
@@ -13936,24 +13363,19 @@
       <c r="IR27" s="10">
         <v>7.7</v>
       </c>
-      <c r="IS27" s="6" t="str">
-        <f>IF(B27='[1]VI sem'!B27,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS27" s="6"/>
     </row>
     <row r="28" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A28" s="10">
         <v>25</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="D28" s="10">
-        <v>0</v>
-      </c>
+      <c r="D28" s="10"/>
       <c r="E28" s="10">
         <v>0</v>
       </c>
@@ -13961,7 +13383,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H28" s="10">
         <f t="shared" si="49"/>
@@ -13991,9 +13413,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X28" s="10">
-        <v>0</v>
-      </c>
+      <c r="X28" s="10"/>
       <c r="Y28" s="10">
         <v>0</v>
       </c>
@@ -14001,7 +13421,7 @@
         <v>0</v>
       </c>
       <c r="AA28" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB28" s="10">
         <f t="shared" si="53"/>
@@ -14015,9 +13435,7 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AH28" s="10">
-        <v>0</v>
-      </c>
+      <c r="AH28" s="10"/>
       <c r="AI28" s="10">
         <v>0</v>
       </c>
@@ -14025,7 +13443,7 @@
         <v>0</v>
       </c>
       <c r="AK28" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL28" s="10">
         <f t="shared" si="55"/>
@@ -14143,9 +13561,7 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="DE28" s="10">
-        <v>0</v>
-      </c>
+      <c r="DE28" s="10"/>
       <c r="DF28" s="10">
         <v>0</v>
       </c>
@@ -14153,7 +13569,7 @@
         <v>0</v>
       </c>
       <c r="DH28" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="DI28" s="10">
         <f t="shared" si="70"/>
@@ -14167,9 +13583,7 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DO28" s="10">
-        <v>0</v>
-      </c>
+      <c r="DO28" s="10"/>
       <c r="DP28" s="10">
         <v>0</v>
       </c>
@@ -14177,7 +13591,7 @@
         <v>0</v>
       </c>
       <c r="DR28" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="DS28" s="10">
         <f t="shared" si="72"/>
@@ -14395,24 +13809,19 @@
       <c r="IR28" s="10">
         <v>8.1999999999999993</v>
       </c>
-      <c r="IS28" s="6" t="str">
-        <f>IF(B28='[1]VI sem'!B28,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS28" s="6"/>
     </row>
     <row r="29" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A29" s="10">
         <v>26</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="D29" s="10">
-        <v>0</v>
-      </c>
+      <c r="D29" s="10"/>
       <c r="E29" s="10">
         <v>0</v>
       </c>
@@ -14420,7 +13829,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="10">
         <f t="shared" si="49"/>
@@ -14458,9 +13867,7 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="AC29" s="10">
-        <v>0</v>
-      </c>
+      <c r="AC29" s="10"/>
       <c r="AD29" s="10">
         <v>0</v>
       </c>
@@ -14468,7 +13875,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG29" s="10">
         <f t="shared" si="54"/>
@@ -14506,9 +13913,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="BB29" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB29" s="10"/>
       <c r="BC29" s="10">
         <v>0</v>
       </c>
@@ -14516,7 +13921,7 @@
         <v>0</v>
       </c>
       <c r="BE29" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BF29" s="10">
         <f t="shared" si="59"/>
@@ -14530,9 +13935,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="BL29" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL29" s="10"/>
       <c r="BM29" s="10">
         <v>0</v>
       </c>
@@ -14540,7 +13943,7 @@
         <v>0</v>
       </c>
       <c r="BO29" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BP29" s="10">
         <f t="shared" si="61"/>
@@ -14594,9 +13997,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU29" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU29" s="10"/>
       <c r="CV29" s="10">
         <v>0</v>
       </c>
@@ -14604,7 +14005,7 @@
         <v>0</v>
       </c>
       <c r="CX29" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CY29" s="10">
         <f t="shared" si="68"/>
@@ -14682,9 +14083,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES29" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES29" s="10"/>
       <c r="ET29" s="10">
         <v>0</v>
       </c>
@@ -14692,7 +14091,7 @@
         <v>0</v>
       </c>
       <c r="EV29" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EW29" s="10">
         <f t="shared" si="78"/>
@@ -14722,9 +14121,7 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="FM29" s="10">
-        <v>0</v>
-      </c>
+      <c r="FM29" s="10"/>
       <c r="FN29" s="10">
         <v>0</v>
       </c>
@@ -14732,7 +14129,7 @@
         <v>0</v>
       </c>
       <c r="FP29" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="FQ29" s="10">
         <f t="shared" si="82"/>
@@ -14870,24 +14267,19 @@
       <c r="IR29" s="10">
         <v>8.6</v>
       </c>
-      <c r="IS29" s="6" t="str">
-        <f>IF(B29='[1]VI sem'!B29,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS29" s="6"/>
     </row>
     <row r="30" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A30" s="10">
         <v>27</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D30" s="10">
-        <v>0</v>
-      </c>
+      <c r="D30" s="10"/>
       <c r="E30" s="10">
         <v>0</v>
       </c>
@@ -14895,7 +14287,7 @@
         <v>0</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H30" s="10">
         <f t="shared" si="49"/>
@@ -14925,9 +14317,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X30" s="10">
-        <v>0</v>
-      </c>
+      <c r="X30" s="10"/>
       <c r="Y30" s="10">
         <v>0</v>
       </c>
@@ -14935,7 +14325,7 @@
         <v>0</v>
       </c>
       <c r="AA30" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB30" s="10">
         <f t="shared" si="53"/>
@@ -14981,9 +14371,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="BB30" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB30" s="10"/>
       <c r="BC30" s="10">
         <v>0</v>
       </c>
@@ -14991,7 +14379,7 @@
         <v>0</v>
       </c>
       <c r="BE30" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BF30" s="10">
         <f t="shared" si="59"/>
@@ -15013,9 +14401,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="BQ30" s="10">
-        <v>0</v>
-      </c>
+      <c r="BQ30" s="10"/>
       <c r="BR30" s="10">
         <v>0</v>
       </c>
@@ -15023,7 +14409,7 @@
         <v>0</v>
       </c>
       <c r="BT30" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BU30" s="10">
         <f t="shared" si="62"/>
@@ -15069,9 +14455,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU30" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU30" s="10"/>
       <c r="CV30" s="10">
         <v>0</v>
       </c>
@@ -15079,7 +14463,7 @@
         <v>0</v>
       </c>
       <c r="CX30" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CY30" s="10">
         <f t="shared" si="68"/>
@@ -15157,9 +14541,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES30" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES30" s="10"/>
       <c r="ET30" s="10">
         <v>0</v>
       </c>
@@ -15167,7 +14549,7 @@
         <v>0</v>
       </c>
       <c r="EV30" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EW30" s="10">
         <f t="shared" si="78"/>
@@ -15337,24 +14719,19 @@
       <c r="IR30" s="10">
         <v>6.9</v>
       </c>
-      <c r="IS30" s="6" t="str">
-        <f>IF(B30='[1]VI sem'!B30,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS30" s="6"/>
     </row>
     <row r="31" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A31" s="10">
         <v>28</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D31" s="10">
-        <v>0</v>
-      </c>
+      <c r="D31" s="10"/>
       <c r="E31" s="10">
         <v>0</v>
       </c>
@@ -15362,7 +14739,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H31" s="10">
         <f t="shared" si="49"/>
@@ -15392,9 +14769,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X31" s="10">
-        <v>0</v>
-      </c>
+      <c r="X31" s="10"/>
       <c r="Y31" s="10">
         <v>0</v>
       </c>
@@ -15402,7 +14777,7 @@
         <v>0</v>
       </c>
       <c r="AA31" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB31" s="10">
         <f t="shared" si="53"/>
@@ -15424,9 +14799,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AM31" s="10">
-        <v>0</v>
-      </c>
+      <c r="AM31" s="10"/>
       <c r="AN31" s="10">
         <v>0</v>
       </c>
@@ -15434,7 +14807,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AQ31" s="10">
         <f t="shared" si="56"/>
@@ -15480,9 +14853,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="BQ31" s="10">
-        <v>0</v>
-      </c>
+      <c r="BQ31" s="10"/>
       <c r="BR31" s="10">
         <v>0</v>
       </c>
@@ -15490,7 +14861,7 @@
         <v>0</v>
       </c>
       <c r="BT31" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BU31" s="10">
         <f t="shared" si="62"/>
@@ -15552,9 +14923,7 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="DE31" s="10">
-        <v>0</v>
-      </c>
+      <c r="DE31" s="10"/>
       <c r="DF31" s="10">
         <v>0</v>
       </c>
@@ -15562,7 +14931,7 @@
         <v>0</v>
       </c>
       <c r="DH31" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="DI31" s="10">
         <f t="shared" si="70"/>
@@ -15624,13 +14993,11 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES31" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="ES31" s="10"/>
       <c r="ET31" s="10"/>
       <c r="EU31" s="10"/>
       <c r="EV31" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EW31" s="10">
         <f t="shared" si="78"/>
@@ -15684,13 +15051,11 @@
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
-      <c r="GB31" s="10" t="s">
-        <v>121</v>
-      </c>
+      <c r="GB31" s="10"/>
       <c r="GC31" s="10"/>
       <c r="GD31" s="10"/>
       <c r="GE31" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="GF31" s="10">
         <f t="shared" si="85"/>
@@ -15804,24 +15169,19 @@
       <c r="IR31" s="10">
         <v>6.1</v>
       </c>
-      <c r="IS31" s="6" t="str">
-        <f>IF(B31='[1]VI sem'!B31,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS31" s="6"/>
     </row>
     <row r="32" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A32" s="10">
         <v>29</v>
       </c>
       <c r="B32" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D32" s="10">
-        <v>0</v>
-      </c>
+      <c r="D32" s="10"/>
       <c r="E32" s="10">
         <v>0</v>
       </c>
@@ -15829,7 +15189,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H32" s="10">
         <f t="shared" si="49"/>
@@ -15867,9 +15227,7 @@
         <f t="shared" si="53"/>
         <v>0</v>
       </c>
-      <c r="AC32" s="10">
-        <v>0</v>
-      </c>
+      <c r="AC32" s="10"/>
       <c r="AD32" s="10">
         <v>0</v>
       </c>
@@ -15877,7 +15235,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG32" s="10">
         <f t="shared" si="54"/>
@@ -15891,9 +15249,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AM32" s="10">
-        <v>0</v>
-      </c>
+      <c r="AM32" s="10"/>
       <c r="AN32" s="10">
         <v>0</v>
       </c>
@@ -15901,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AQ32" s="10">
         <f t="shared" si="56"/>
@@ -15939,9 +15295,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="BL32" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL32" s="10"/>
       <c r="BM32" s="10">
         <v>0</v>
       </c>
@@ -15949,7 +15303,7 @@
         <v>0</v>
       </c>
       <c r="BO32" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BP32" s="10">
         <f t="shared" si="61"/>
@@ -16003,9 +15357,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU32" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU32" s="10"/>
       <c r="CV32" s="10">
         <v>0</v>
       </c>
@@ -16013,7 +15365,7 @@
         <v>0</v>
       </c>
       <c r="CX32" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="CY32" s="10">
         <f t="shared" si="68"/>
@@ -16091,9 +15443,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES32" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES32" s="10"/>
       <c r="ET32" s="10">
         <v>0</v>
       </c>
@@ -16101,7 +15451,7 @@
         <v>0</v>
       </c>
       <c r="EV32" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EW32" s="10">
         <f t="shared" si="78"/>
@@ -16155,9 +15505,7 @@
         <f t="shared" si="84"/>
         <v>0</v>
       </c>
-      <c r="GB32" s="10">
-        <v>0</v>
-      </c>
+      <c r="GB32" s="10"/>
       <c r="GC32" s="10">
         <v>0</v>
       </c>
@@ -16165,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="GE32" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="GF32" s="10">
         <f t="shared" si="85"/>
@@ -16279,24 +15627,19 @@
       <c r="IR32" s="10">
         <v>8</v>
       </c>
-      <c r="IS32" s="6" t="str">
-        <f>IF(B32='[1]VI sem'!B32,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS32" s="6"/>
     </row>
     <row r="33" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <v>30</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D33" s="10">
-        <v>0</v>
-      </c>
+        <v>122</v>
+      </c>
+      <c r="D33" s="10"/>
       <c r="E33" s="10">
         <v>0</v>
       </c>
@@ -16304,7 +15647,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" si="49"/>
@@ -16326,9 +15669,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S33" s="10">
-        <v>0</v>
-      </c>
+      <c r="S33" s="10"/>
       <c r="T33" s="10">
         <v>0</v>
       </c>
@@ -16336,7 +15677,7 @@
         <v>0</v>
       </c>
       <c r="V33" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="W33" s="10">
         <f t="shared" si="52"/>
@@ -16414,9 +15755,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="BQ33" s="10">
-        <v>0</v>
-      </c>
+      <c r="BQ33" s="10"/>
       <c r="BR33" s="10">
         <v>0</v>
       </c>
@@ -16424,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="BT33" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BU33" s="10">
         <f t="shared" si="62"/>
@@ -16470,9 +15809,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU33" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU33" s="10"/>
       <c r="CV33" s="10">
         <v>0</v>
       </c>
@@ -16480,7 +15817,7 @@
         <v>0</v>
       </c>
       <c r="CX33" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CY33" s="10">
         <f t="shared" si="68"/>
@@ -16526,9 +15863,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="DY33" s="10">
-        <v>0</v>
-      </c>
+      <c r="DY33" s="10"/>
       <c r="DZ33" s="10">
         <v>0</v>
       </c>
@@ -16536,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="EB33" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EC33" s="10">
         <f t="shared" si="74"/>
@@ -16566,9 +15901,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES33" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES33" s="10"/>
       <c r="ET33" s="10">
         <v>0</v>
       </c>
@@ -16576,7 +15909,7 @@
         <v>0</v>
       </c>
       <c r="EV33" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EW33" s="10">
         <f t="shared" si="78"/>
@@ -16746,24 +16079,19 @@
       <c r="IR33" s="10">
         <v>7.5</v>
       </c>
-      <c r="IS33" s="6" t="str">
-        <f>IF(B33='[1]VI sem'!B33,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS33" s="6"/>
     </row>
     <row r="34" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A34" s="10">
         <v>31</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="C34" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D34" s="10">
-        <v>0</v>
-      </c>
+      <c r="D34" s="10"/>
       <c r="E34" s="10">
         <v>0</v>
       </c>
@@ -16771,7 +16099,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H34" s="10">
         <f t="shared" si="49"/>
@@ -16793,9 +16121,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S34" s="10">
-        <v>0</v>
-      </c>
+      <c r="S34" s="10"/>
       <c r="T34" s="10">
         <v>0</v>
       </c>
@@ -16803,7 +16129,7 @@
         <v>0</v>
       </c>
       <c r="V34" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W34" s="10">
         <f t="shared" si="52"/>
@@ -16889,9 +16215,7 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="BV34" s="10">
-        <v>0</v>
-      </c>
+      <c r="BV34" s="10"/>
       <c r="BW34" s="10">
         <v>0</v>
       </c>
@@ -16899,7 +16223,7 @@
         <v>0</v>
       </c>
       <c r="BY34" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BZ34" s="10">
         <f t="shared" si="63"/>
@@ -16985,9 +16309,7 @@
         <f t="shared" si="73"/>
         <v>0</v>
       </c>
-      <c r="DY34" s="10">
-        <v>0</v>
-      </c>
+      <c r="DY34" s="10"/>
       <c r="DZ34" s="10">
         <v>0</v>
       </c>
@@ -16995,7 +16317,7 @@
         <v>0</v>
       </c>
       <c r="EB34" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="EC34" s="10">
         <f t="shared" si="74"/>
@@ -17025,9 +16347,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES34" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES34" s="10"/>
       <c r="ET34" s="10">
         <v>0</v>
       </c>
@@ -17035,7 +16355,7 @@
         <v>0</v>
       </c>
       <c r="EV34" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EW34" s="10">
         <f t="shared" si="78"/>
@@ -17205,24 +16525,19 @@
       <c r="IR34" s="10">
         <v>6.9</v>
       </c>
-      <c r="IS34" s="6" t="str">
-        <f>IF(B34='[1]VI sem'!B34,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS34" s="6"/>
     </row>
     <row r="35" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A35" s="10">
         <v>32</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="C35" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C35" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="D35" s="10">
-        <v>0</v>
-      </c>
+      <c r="D35" s="10"/>
       <c r="E35" s="10">
         <v>0</v>
       </c>
@@ -17230,7 +16545,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H35" s="10">
         <f t="shared" si="49"/>
@@ -17260,9 +16575,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X35" s="10">
-        <v>0</v>
-      </c>
+      <c r="X35" s="10"/>
       <c r="Y35" s="10">
         <v>0</v>
       </c>
@@ -17270,7 +16583,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AB35" s="10">
         <f t="shared" si="53"/>
@@ -17284,9 +16597,7 @@
         <f t="shared" si="54"/>
         <v>0</v>
       </c>
-      <c r="AH35" s="10">
-        <v>0</v>
-      </c>
+      <c r="AH35" s="10"/>
       <c r="AI35" s="10">
         <v>0</v>
       </c>
@@ -17294,7 +16605,7 @@
         <v>0</v>
       </c>
       <c r="AK35" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AL35" s="10">
         <f t="shared" si="55"/>
@@ -17348,9 +16659,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="BQ35" s="10">
-        <v>0</v>
-      </c>
+      <c r="BQ35" s="10"/>
       <c r="BR35" s="10">
         <v>0</v>
       </c>
@@ -17358,7 +16667,7 @@
         <v>0</v>
       </c>
       <c r="BT35" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BU35" s="10">
         <f t="shared" si="62"/>
@@ -17404,9 +16713,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU35" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU35" s="10"/>
       <c r="CV35" s="10">
         <v>0</v>
       </c>
@@ -17414,7 +16721,7 @@
         <v>0</v>
       </c>
       <c r="CX35" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="CY35" s="10">
         <f t="shared" si="68"/>
@@ -17436,9 +16743,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DJ35" s="10">
-        <v>0</v>
-      </c>
+      <c r="DJ35" s="10"/>
       <c r="DK35" s="10">
         <v>0</v>
       </c>
@@ -17446,7 +16751,7 @@
         <v>0</v>
       </c>
       <c r="DM35" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="DN35" s="10">
         <f t="shared" si="71"/>
@@ -17500,9 +16805,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES35" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES35" s="10"/>
       <c r="ET35" s="10">
         <v>0</v>
       </c>
@@ -17510,7 +16813,7 @@
         <v>0</v>
       </c>
       <c r="EV35" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EW35" s="10">
         <f t="shared" si="78"/>
@@ -17680,24 +16983,19 @@
       <c r="IR35" s="10">
         <v>7.2</v>
       </c>
-      <c r="IS35" s="6" t="str">
-        <f>IF(B35='[1]VI sem'!B35,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS35" s="6"/>
     </row>
     <row r="36" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A36" s="10">
         <v>33</v>
       </c>
       <c r="B36" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="C36" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D36" s="10">
-        <v>0</v>
-      </c>
+      <c r="D36" s="10"/>
       <c r="E36" s="10">
         <v>0</v>
       </c>
@@ -17705,7 +17003,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" si="49"/>
@@ -17735,9 +17033,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X36" s="10">
-        <v>0</v>
-      </c>
+      <c r="X36" s="10"/>
       <c r="Y36" s="10">
         <v>0</v>
       </c>
@@ -17745,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="AA36" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AB36" s="10">
         <f t="shared" si="53"/>
@@ -17791,9 +17087,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="BB36" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB36" s="10"/>
       <c r="BC36" s="10">
         <v>0</v>
       </c>
@@ -17801,7 +17095,7 @@
         <v>0</v>
       </c>
       <c r="BE36" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BF36" s="10">
         <f t="shared" si="59"/>
@@ -17815,9 +17109,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="BL36" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL36" s="10"/>
       <c r="BM36" s="10">
         <v>0</v>
       </c>
@@ -17825,7 +17117,7 @@
         <v>0</v>
       </c>
       <c r="BO36" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BP36" s="10">
         <f t="shared" si="61"/>
@@ -17879,9 +17171,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU36" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU36" s="10"/>
       <c r="CV36" s="10">
         <v>0</v>
       </c>
@@ -17889,7 +17179,7 @@
         <v>0</v>
       </c>
       <c r="CX36" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="CY36" s="10">
         <f t="shared" si="68"/>
@@ -17975,9 +17265,7 @@
         <f t="shared" si="78"/>
         <v>0</v>
       </c>
-      <c r="EX36" s="10">
-        <v>0</v>
-      </c>
+      <c r="EX36" s="10"/>
       <c r="EY36" s="10">
         <v>0</v>
       </c>
@@ -17985,7 +17273,7 @@
         <v>0</v>
       </c>
       <c r="FA36" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="FB36" s="10">
         <f t="shared" si="79"/>
@@ -18147,24 +17435,19 @@
       <c r="IR36" s="10">
         <v>8.1</v>
       </c>
-      <c r="IS36" s="6" t="str">
-        <f>IF(B36='[1]VI sem'!B36,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS36" s="6"/>
     </row>
     <row r="37" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A37" s="10">
         <v>34</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C37" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D37" s="10">
-        <v>0</v>
-      </c>
+      <c r="D37" s="10"/>
       <c r="E37" s="10">
         <v>0</v>
       </c>
@@ -18172,7 +17455,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H37" s="10">
         <f t="shared" si="49"/>
@@ -18202,9 +17485,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X37" s="10">
-        <v>0</v>
-      </c>
+      <c r="X37" s="10"/>
       <c r="Y37" s="10">
         <v>0</v>
       </c>
@@ -18212,7 +17493,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="AB37" s="10">
         <f t="shared" si="53"/>
@@ -18290,9 +17571,7 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="BV37" s="10">
-        <v>0</v>
-      </c>
+      <c r="BV37" s="10"/>
       <c r="BW37" s="10">
         <v>0</v>
       </c>
@@ -18300,7 +17579,7 @@
         <v>0</v>
       </c>
       <c r="BY37" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="BZ37" s="10">
         <f t="shared" si="63"/>
@@ -18404,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="EG37" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EH37" s="10">
         <f t="shared" si="75"/>
@@ -18426,9 +17705,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES37" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES37" s="10"/>
       <c r="ET37" s="10">
         <v>0</v>
       </c>
@@ -18436,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="EV37" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="EW37" s="10">
         <f t="shared" si="78"/>
@@ -18606,24 +17883,19 @@
       <c r="IR37" s="10">
         <v>7.7</v>
       </c>
-      <c r="IS37" s="6" t="str">
-        <f>IF(B37='[1]VI sem'!B37,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS37" s="6"/>
     </row>
     <row r="38" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A38" s="10">
         <v>35</v>
       </c>
       <c r="B38" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C38" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="D38" s="10">
-        <v>0</v>
-      </c>
+      <c r="D38" s="10"/>
       <c r="E38" s="10">
         <v>0</v>
       </c>
@@ -18631,7 +17903,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H38" s="10">
         <f t="shared" si="49"/>
@@ -18661,9 +17933,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X38" s="10">
-        <v>0</v>
-      </c>
+      <c r="X38" s="10"/>
       <c r="Y38" s="10">
         <v>0</v>
       </c>
@@ -18671,7 +17941,7 @@
         <v>0</v>
       </c>
       <c r="AA38" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AB38" s="10">
         <f t="shared" si="53"/>
@@ -18717,9 +17987,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="BB38" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB38" s="10"/>
       <c r="BC38" s="10">
         <v>0</v>
       </c>
@@ -18727,7 +17995,7 @@
         <v>0</v>
       </c>
       <c r="BE38" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BF38" s="10">
         <f t="shared" si="59"/>
@@ -18741,9 +18009,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="BL38" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL38" s="10"/>
       <c r="BM38" s="10">
         <v>0</v>
       </c>
@@ -18751,7 +18017,7 @@
         <v>0</v>
       </c>
       <c r="BO38" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BP38" s="10">
         <f t="shared" si="61"/>
@@ -18821,9 +18087,7 @@
         <f t="shared" si="69"/>
         <v>0</v>
       </c>
-      <c r="DE38" s="10">
-        <v>0</v>
-      </c>
+      <c r="DE38" s="10"/>
       <c r="DF38" s="10">
         <v>0</v>
       </c>
@@ -18831,7 +18095,7 @@
         <v>0</v>
       </c>
       <c r="DH38" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="DI38" s="10">
         <f t="shared" si="70"/>
@@ -18893,9 +18157,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES38" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES38" s="10"/>
       <c r="ET38" s="10">
         <v>0</v>
       </c>
@@ -18903,7 +18165,7 @@
         <v>0</v>
       </c>
       <c r="EV38" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EW38" s="10">
         <f t="shared" si="78"/>
@@ -19073,24 +18335,19 @@
       <c r="IR38" s="10">
         <v>8.5</v>
       </c>
-      <c r="IS38" s="6" t="str">
-        <f>IF(B38='[1]VI sem'!B38,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS38" s="6"/>
     </row>
     <row r="39" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A39" s="10">
         <v>36</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="C39" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="D39" s="10">
-        <v>0</v>
-      </c>
+      <c r="D39" s="10"/>
       <c r="E39" s="10">
         <v>0</v>
       </c>
@@ -19098,7 +18355,7 @@
         <v>0</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H39" s="10">
         <f t="shared" si="49"/>
@@ -19120,9 +18377,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S39" s="10">
-        <v>0</v>
-      </c>
+      <c r="S39" s="10"/>
       <c r="T39" s="10">
         <v>0</v>
       </c>
@@ -19130,7 +18385,7 @@
         <v>0</v>
       </c>
       <c r="V39" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W39" s="10">
         <f t="shared" si="52"/>
@@ -19184,9 +18439,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="BB39" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB39" s="10"/>
       <c r="BC39" s="10">
         <v>0</v>
       </c>
@@ -19194,7 +18447,7 @@
         <v>0</v>
       </c>
       <c r="BE39" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BF39" s="10">
         <f t="shared" si="59"/>
@@ -19208,9 +18461,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="BL39" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL39" s="10"/>
       <c r="BM39" s="10">
         <v>0</v>
       </c>
@@ -19218,7 +18469,7 @@
         <v>0</v>
       </c>
       <c r="BO39" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="BP39" s="10">
         <f t="shared" si="61"/>
@@ -19304,9 +18555,7 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-      <c r="DO39" s="10">
-        <v>0</v>
-      </c>
+      <c r="DO39" s="10"/>
       <c r="DP39" s="10">
         <v>0</v>
       </c>
@@ -19314,7 +18563,7 @@
         <v>0</v>
       </c>
       <c r="DR39" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="DS39" s="10">
         <f t="shared" si="72"/>
@@ -19360,9 +18609,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES39" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES39" s="10"/>
       <c r="ET39" s="10">
         <v>0</v>
       </c>
@@ -19370,7 +18617,7 @@
         <v>0</v>
       </c>
       <c r="EV39" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EW39" s="10">
         <f t="shared" si="78"/>
@@ -19416,9 +18663,7 @@
         <f t="shared" si="83"/>
         <v>0</v>
       </c>
-      <c r="FW39" s="10">
-        <v>0</v>
-      </c>
+      <c r="FW39" s="10"/>
       <c r="FX39" s="10">
         <v>0</v>
       </c>
@@ -19426,7 +18671,7 @@
         <v>0</v>
       </c>
       <c r="FZ39" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="GA39" s="10">
         <f t="shared" si="84"/>
@@ -19548,24 +18793,19 @@
       <c r="IR39" s="10">
         <v>8.5</v>
       </c>
-      <c r="IS39" s="6" t="str">
-        <f>IF(B39='[1]VI sem'!B39,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS39" s="6"/>
     </row>
     <row r="40" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A40" s="10">
         <v>37</v>
       </c>
       <c r="B40" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C40" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D40" s="10">
-        <v>0</v>
-      </c>
+      <c r="D40" s="10"/>
       <c r="E40" s="10">
         <v>0</v>
       </c>
@@ -19573,7 +18813,7 @@
         <v>0</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H40" s="10">
         <f t="shared" si="49"/>
@@ -19595,9 +18835,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S40" s="10">
-        <v>0</v>
-      </c>
+      <c r="S40" s="10"/>
       <c r="T40" s="10">
         <v>0</v>
       </c>
@@ -19605,7 +18843,7 @@
         <v>0</v>
       </c>
       <c r="V40" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="W40" s="10">
         <f t="shared" si="52"/>
@@ -19635,9 +18873,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AM40" s="10">
-        <v>0</v>
-      </c>
+      <c r="AM40" s="10"/>
       <c r="AN40" s="10">
         <v>0</v>
       </c>
@@ -19645,7 +18881,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="AQ40" s="10">
         <f t="shared" si="56"/>
@@ -19699,9 +18935,7 @@
         <f t="shared" si="62"/>
         <v>0</v>
       </c>
-      <c r="BV40" s="10">
-        <v>0</v>
-      </c>
+      <c r="BV40" s="10"/>
       <c r="BW40" s="10">
         <v>0</v>
       </c>
@@ -19709,7 +18943,7 @@
         <v>0</v>
       </c>
       <c r="BY40" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BZ40" s="10">
         <f t="shared" si="63"/>
@@ -19747,9 +18981,7 @@
         <f t="shared" si="67"/>
         <v>0</v>
       </c>
-      <c r="CU40" s="10">
-        <v>0</v>
-      </c>
+      <c r="CU40" s="10"/>
       <c r="CV40" s="10">
         <v>0</v>
       </c>
@@ -19757,7 +18989,7 @@
         <v>0</v>
       </c>
       <c r="CX40" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="CY40" s="10">
         <f t="shared" si="68"/>
@@ -19835,9 +19067,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES40" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES40" s="10"/>
       <c r="ET40" s="10">
         <v>0</v>
       </c>
@@ -19845,7 +19075,7 @@
         <v>0</v>
       </c>
       <c r="EV40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="EW40" s="10">
         <f t="shared" si="78"/>
@@ -19875,9 +19105,7 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="FM40" s="10">
-        <v>0</v>
-      </c>
+      <c r="FM40" s="10"/>
       <c r="FN40" s="10">
         <v>0</v>
       </c>
@@ -19885,7 +19113,7 @@
         <v>0</v>
       </c>
       <c r="FP40" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="FQ40" s="10">
         <f t="shared" si="82"/>
@@ -19947,9 +19175,7 @@
         <f t="shared" si="89"/>
         <v>0</v>
       </c>
-      <c r="HA40" s="10">
-        <v>0</v>
-      </c>
+      <c r="HA40" s="10"/>
       <c r="HB40" s="10">
         <v>0</v>
       </c>
@@ -19957,7 +19183,7 @@
         <v>0</v>
       </c>
       <c r="HD40" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="HE40" s="10">
         <f t="shared" si="90"/>
@@ -20031,24 +19257,19 @@
       <c r="IR40" s="10">
         <v>7.6</v>
       </c>
-      <c r="IS40" s="6" t="str">
-        <f>IF(B40='[1]VI sem'!B40,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS40" s="6"/>
     </row>
     <row r="41" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>38</v>
       </c>
       <c r="B41" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="C41" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D41" s="10">
-        <v>0</v>
-      </c>
+      <c r="D41" s="10"/>
       <c r="E41" s="10">
         <v>0</v>
       </c>
@@ -20056,7 +19277,7 @@
         <v>0</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="49"/>
@@ -20086,9 +19307,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X41" s="10">
-        <v>0</v>
-      </c>
+      <c r="X41" s="10"/>
       <c r="Y41" s="10">
         <v>0</v>
       </c>
@@ -20096,7 +19315,7 @@
         <v>0</v>
       </c>
       <c r="AA41" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB41" s="10">
         <f t="shared" si="53"/>
@@ -20118,9 +19337,7 @@
         <f t="shared" si="55"/>
         <v>0</v>
       </c>
-      <c r="AM41" s="10">
-        <v>0</v>
-      </c>
+      <c r="AM41" s="10"/>
       <c r="AN41" s="10">
         <v>0</v>
       </c>
@@ -20128,7 +19345,7 @@
         <v>0</v>
       </c>
       <c r="AP41" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AQ41" s="10">
         <f t="shared" si="56"/>
@@ -20166,9 +19383,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="BL41" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL41" s="10"/>
       <c r="BM41" s="10">
         <v>0</v>
       </c>
@@ -20176,7 +19391,7 @@
         <v>0</v>
       </c>
       <c r="BO41" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BP41" s="10">
         <f t="shared" si="61"/>
@@ -20310,9 +19525,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES41" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES41" s="10"/>
       <c r="ET41" s="10">
         <v>0</v>
       </c>
@@ -20320,7 +19533,7 @@
         <v>0</v>
       </c>
       <c r="EV41" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EW41" s="10">
         <f t="shared" si="78"/>
@@ -20350,9 +19563,7 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="FM41" s="10">
-        <v>0</v>
-      </c>
+      <c r="FM41" s="10"/>
       <c r="FN41" s="10">
         <v>0</v>
       </c>
@@ -20360,7 +19571,7 @@
         <v>0</v>
       </c>
       <c r="FP41" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="FQ41" s="10">
         <f t="shared" si="82"/>
@@ -20498,24 +19709,19 @@
       <c r="IR41" s="10">
         <v>7.8</v>
       </c>
-      <c r="IS41" s="6" t="str">
-        <f>IF(B41='[1]VI sem'!B41,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS41" s="6"/>
     </row>
     <row r="42" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A42" s="10">
         <v>39</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="C42" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="D42" s="10">
-        <v>0</v>
-      </c>
+      <c r="D42" s="10"/>
       <c r="E42" s="10">
         <v>0</v>
       </c>
@@ -20523,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" si="49"/>
@@ -20553,9 +19759,7 @@
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="X42" s="10">
-        <v>0</v>
-      </c>
+      <c r="X42" s="10"/>
       <c r="Y42" s="10">
         <v>0</v>
       </c>
@@ -20563,7 +19767,7 @@
         <v>0</v>
       </c>
       <c r="AA42" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB42" s="10">
         <f t="shared" si="53"/>
@@ -20609,9 +19813,7 @@
         <f t="shared" si="58"/>
         <v>0</v>
       </c>
-      <c r="BB42" s="10">
-        <v>0</v>
-      </c>
+      <c r="BB42" s="10"/>
       <c r="BC42" s="10">
         <v>0</v>
       </c>
@@ -20619,7 +19821,7 @@
         <v>0</v>
       </c>
       <c r="BE42" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="BF42" s="10">
         <f t="shared" si="59"/>
@@ -20633,9 +19835,7 @@
         <f t="shared" si="60"/>
         <v>0</v>
       </c>
-      <c r="BL42" s="10">
-        <v>0</v>
-      </c>
+      <c r="BL42" s="10"/>
       <c r="BM42" s="10">
         <v>0</v>
       </c>
@@ -20643,7 +19843,7 @@
         <v>0</v>
       </c>
       <c r="BO42" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BP42" s="10">
         <f t="shared" si="61"/>
@@ -20777,9 +19977,7 @@
         <f t="shared" si="77"/>
         <v>0</v>
       </c>
-      <c r="ES42" s="10">
-        <v>0</v>
-      </c>
+      <c r="ES42" s="10"/>
       <c r="ET42" s="10">
         <v>0</v>
       </c>
@@ -20787,7 +19985,7 @@
         <v>0</v>
       </c>
       <c r="EV42" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="EW42" s="10">
         <f t="shared" si="78"/>
@@ -20817,9 +20015,7 @@
         <f t="shared" si="81"/>
         <v>0</v>
       </c>
-      <c r="FM42" s="10">
-        <v>0</v>
-      </c>
+      <c r="FM42" s="10"/>
       <c r="FN42" s="10">
         <v>0</v>
       </c>
@@ -20827,7 +20023,7 @@
         <v>0</v>
       </c>
       <c r="FP42" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="FQ42" s="10">
         <f t="shared" si="82"/>
@@ -20965,24 +20161,19 @@
       <c r="IR42" s="10">
         <v>8.5</v>
       </c>
-      <c r="IS42" s="6" t="str">
-        <f>IF(B42='[1]VI sem'!B42,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS42" s="6"/>
     </row>
     <row r="43" spans="1:253" x14ac:dyDescent="0.25">
       <c r="A43" s="10">
         <v>40</v>
       </c>
       <c r="B43" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C43" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="C43" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="10">
-        <v>0</v>
-      </c>
+      <c r="D43" s="10"/>
       <c r="E43" s="10">
         <v>0</v>
       </c>
@@ -20990,7 +20181,7 @@
         <v>0</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H43" s="10">
         <f t="shared" si="49"/>
@@ -21012,9 +20203,7 @@
         <f t="shared" si="51"/>
         <v>0</v>
       </c>
-      <c r="S43" s="10">
-        <v>0</v>
-      </c>
+      <c r="S43" s="10"/>
       <c r="T43" s="10">
         <v>0</v>
       </c>
@@ -21022,7 +20211,7 @@
         <v>0</v>
       </c>
       <c r="V43" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="W43" s="10">
         <f t="shared" si="52"/>
@@ -21060,9 +20249,7 @@
         <f t="shared" si="56"/>
         <v>0</v>
       </c>
-      <c r="AR43" s="10">
-        <v>0</v>
-      </c>
+      <c r="AR43" s="10"/>
       <c r="AS43" s="10">
         <v>0</v>
       </c>
@@ -21070,7 +20257,7 @@
         <v>0</v>
       </c>
       <c r="AU43" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="AV43" s="10">
         <f t="shared" si="57"/>
@@ -21108,9 +20295,7 @@
         <f t="shared" si="61"/>
         <v>0</v>
       </c>
-      <c r="BQ43" s="10">
-        <v>0</v>
-      </c>
+      <c r="BQ43" s="10"/>
       <c r="BR43" s="10">
         <v>0</v>
       </c>
@@ -21118,7 +20303,7 @@
         <v>0</v>
       </c>
       <c r="BT43" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="BU43" s="10">
         <f t="shared" si="62"/>
@@ -21148,9 +20333,7 @@
         <f t="shared" si="65"/>
         <v>0</v>
       </c>
-      <c r="CK43" s="10">
-        <v>0</v>
-      </c>
+      <c r="CK43" s="10"/>
       <c r="CL43" s="10">
         <v>0</v>
       </c>
@@ -21158,7 +20341,7 @@
         <v>0</v>
       </c>
       <c r="CN43" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="CO43" s="10">
         <f t="shared" si="66"/>
@@ -21196,9 +20379,7 @@
         <f t="shared" si="70"/>
         <v>0</v>
       </c>
-      <c r="DJ43" s="10">
-        <v>0</v>
-      </c>
+      <c r="DJ43" s="10"/>
       <c r="DK43" s="10">
         <v>0</v>
       </c>
@@ -21206,7 +20387,7 @@
         <v>0</v>
       </c>
       <c r="DM43" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="DN43" s="10">
         <f t="shared" si="71"/>
@@ -21432,51 +20613,95 @@
       <c r="IR43" s="10">
         <v>5.7</v>
       </c>
-      <c r="IS43" s="6" t="str">
-        <f>IF(B43='[1]VI sem'!B43,"T","F")</f>
-        <v>F</v>
-      </c>
+      <c r="IS43" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="147">
-    <mergeCell ref="AH1:AL1"/>
-    <mergeCell ref="AM1:AQ1"/>
-    <mergeCell ref="AR1:AV1"/>
-    <mergeCell ref="AW1:BA1"/>
-    <mergeCell ref="BB1:BF1"/>
-    <mergeCell ref="BG1:BK1"/>
-    <mergeCell ref="D1:H1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="N1:R1"/>
-    <mergeCell ref="S1:W1"/>
-    <mergeCell ref="X1:AB1"/>
-    <mergeCell ref="AC1:AG1"/>
-    <mergeCell ref="CP1:CT1"/>
-    <mergeCell ref="CU1:CY1"/>
-    <mergeCell ref="CZ1:DD1"/>
-    <mergeCell ref="DE1:DI1"/>
-    <mergeCell ref="DJ1:DN1"/>
-    <mergeCell ref="DO1:DS1"/>
-    <mergeCell ref="BL1:BP1"/>
-    <mergeCell ref="BQ1:BU1"/>
-    <mergeCell ref="BV1:BZ1"/>
-    <mergeCell ref="CA1:CE1"/>
-    <mergeCell ref="CF1:CJ1"/>
-    <mergeCell ref="CK1:CO1"/>
-    <mergeCell ref="GV1:GZ1"/>
-    <mergeCell ref="HA1:HE1"/>
-    <mergeCell ref="EX1:FB1"/>
-    <mergeCell ref="FC1:FG1"/>
-    <mergeCell ref="FH1:FL1"/>
-    <mergeCell ref="FM1:FQ1"/>
-    <mergeCell ref="FR1:FV1"/>
-    <mergeCell ref="FW1:GA1"/>
-    <mergeCell ref="DT1:DX1"/>
-    <mergeCell ref="DY1:EC1"/>
-    <mergeCell ref="ED1:EH1"/>
-    <mergeCell ref="EI1:EM1"/>
-    <mergeCell ref="EN1:ER1"/>
-    <mergeCell ref="ES1:EW1"/>
+    <mergeCell ref="IJ3:IN3"/>
+    <mergeCell ref="HF3:HJ3"/>
+    <mergeCell ref="HK3:HO3"/>
+    <mergeCell ref="HP3:HT3"/>
+    <mergeCell ref="HU3:HY3"/>
+    <mergeCell ref="HZ3:ID3"/>
+    <mergeCell ref="IE3:II3"/>
+    <mergeCell ref="GB3:GF3"/>
+    <mergeCell ref="GG3:GK3"/>
+    <mergeCell ref="GL3:GP3"/>
+    <mergeCell ref="GQ3:GU3"/>
+    <mergeCell ref="GV3:GZ3"/>
+    <mergeCell ref="HA3:HE3"/>
+    <mergeCell ref="EX3:FB3"/>
+    <mergeCell ref="FC3:FG3"/>
+    <mergeCell ref="FH3:FL3"/>
+    <mergeCell ref="FM3:FQ3"/>
+    <mergeCell ref="FR3:FV3"/>
+    <mergeCell ref="FW3:GA3"/>
+    <mergeCell ref="DT3:DX3"/>
+    <mergeCell ref="DY3:EC3"/>
+    <mergeCell ref="ED3:EH3"/>
+    <mergeCell ref="EI3:EM3"/>
+    <mergeCell ref="EN3:ER3"/>
+    <mergeCell ref="ES3:EW3"/>
+    <mergeCell ref="CP3:CT3"/>
+    <mergeCell ref="CU3:CY3"/>
+    <mergeCell ref="CZ3:DD3"/>
+    <mergeCell ref="DE3:DI3"/>
+    <mergeCell ref="DJ3:DN3"/>
+    <mergeCell ref="DO3:DS3"/>
+    <mergeCell ref="BL3:BP3"/>
+    <mergeCell ref="BQ3:BU3"/>
+    <mergeCell ref="BV3:BZ3"/>
+    <mergeCell ref="CA3:CE3"/>
+    <mergeCell ref="CF3:CJ3"/>
+    <mergeCell ref="CK3:CO3"/>
+    <mergeCell ref="AH3:AL3"/>
+    <mergeCell ref="AM3:AQ3"/>
+    <mergeCell ref="AR3:AV3"/>
+    <mergeCell ref="AW3:BA3"/>
+    <mergeCell ref="BB3:BF3"/>
+    <mergeCell ref="BG3:BK3"/>
+    <mergeCell ref="HU2:HY2"/>
+    <mergeCell ref="HZ2:ID2"/>
+    <mergeCell ref="IE2:II2"/>
+    <mergeCell ref="FH2:FL2"/>
+    <mergeCell ref="DE2:DI2"/>
+    <mergeCell ref="DJ2:DN2"/>
+    <mergeCell ref="DO2:DS2"/>
+    <mergeCell ref="DT2:DX2"/>
+    <mergeCell ref="DY2:EC2"/>
+    <mergeCell ref="ED2:EH2"/>
+    <mergeCell ref="CA2:CE2"/>
+    <mergeCell ref="CF2:CJ2"/>
+    <mergeCell ref="CK2:CO2"/>
+    <mergeCell ref="CP2:CT2"/>
+    <mergeCell ref="CU2:CY2"/>
+    <mergeCell ref="CZ2:DD2"/>
+    <mergeCell ref="AW2:BA2"/>
+    <mergeCell ref="BB2:BF2"/>
+    <mergeCell ref="IJ2:IN2"/>
+    <mergeCell ref="D3:H3"/>
+    <mergeCell ref="I3:M3"/>
+    <mergeCell ref="N3:R3"/>
+    <mergeCell ref="S3:W3"/>
+    <mergeCell ref="X3:AB3"/>
+    <mergeCell ref="AC3:AG3"/>
+    <mergeCell ref="GQ2:GU2"/>
+    <mergeCell ref="GV2:GZ2"/>
+    <mergeCell ref="HA2:HE2"/>
+    <mergeCell ref="HF2:HJ2"/>
+    <mergeCell ref="HK2:HO2"/>
+    <mergeCell ref="HP2:HT2"/>
+    <mergeCell ref="FM2:FQ2"/>
+    <mergeCell ref="FR2:FV2"/>
+    <mergeCell ref="FW2:GA2"/>
+    <mergeCell ref="GB2:GF2"/>
+    <mergeCell ref="GG2:GK2"/>
+    <mergeCell ref="GL2:GP2"/>
+    <mergeCell ref="EI2:EM2"/>
+    <mergeCell ref="EN2:ER2"/>
+    <mergeCell ref="ES2:EW2"/>
+    <mergeCell ref="EX2:FB2"/>
+    <mergeCell ref="FC2:FG2"/>
     <mergeCell ref="BG2:BK2"/>
     <mergeCell ref="BL2:BP2"/>
     <mergeCell ref="BQ2:BU2"/>
@@ -21501,91 +20726,44 @@
     <mergeCell ref="GG1:GK1"/>
     <mergeCell ref="GL1:GP1"/>
     <mergeCell ref="GQ1:GU1"/>
-    <mergeCell ref="IJ2:IN2"/>
-    <mergeCell ref="D3:H3"/>
-    <mergeCell ref="I3:M3"/>
-    <mergeCell ref="N3:R3"/>
-    <mergeCell ref="S3:W3"/>
-    <mergeCell ref="X3:AB3"/>
-    <mergeCell ref="AC3:AG3"/>
-    <mergeCell ref="GQ2:GU2"/>
-    <mergeCell ref="GV2:GZ2"/>
-    <mergeCell ref="HA2:HE2"/>
-    <mergeCell ref="HF2:HJ2"/>
-    <mergeCell ref="HK2:HO2"/>
-    <mergeCell ref="HP2:HT2"/>
-    <mergeCell ref="FM2:FQ2"/>
-    <mergeCell ref="FR2:FV2"/>
-    <mergeCell ref="FW2:GA2"/>
-    <mergeCell ref="GB2:GF2"/>
-    <mergeCell ref="GG2:GK2"/>
-    <mergeCell ref="GL2:GP2"/>
-    <mergeCell ref="EI2:EM2"/>
-    <mergeCell ref="EN2:ER2"/>
-    <mergeCell ref="ES2:EW2"/>
-    <mergeCell ref="EX2:FB2"/>
-    <mergeCell ref="FC2:FG2"/>
-    <mergeCell ref="AH3:AL3"/>
-    <mergeCell ref="AM3:AQ3"/>
-    <mergeCell ref="AR3:AV3"/>
-    <mergeCell ref="AW3:BA3"/>
-    <mergeCell ref="BB3:BF3"/>
-    <mergeCell ref="BG3:BK3"/>
-    <mergeCell ref="HU2:HY2"/>
-    <mergeCell ref="HZ2:ID2"/>
-    <mergeCell ref="IE2:II2"/>
-    <mergeCell ref="FH2:FL2"/>
-    <mergeCell ref="DE2:DI2"/>
-    <mergeCell ref="DJ2:DN2"/>
-    <mergeCell ref="DO2:DS2"/>
-    <mergeCell ref="DT2:DX2"/>
-    <mergeCell ref="DY2:EC2"/>
-    <mergeCell ref="ED2:EH2"/>
-    <mergeCell ref="CA2:CE2"/>
-    <mergeCell ref="CF2:CJ2"/>
-    <mergeCell ref="CK2:CO2"/>
-    <mergeCell ref="CP2:CT2"/>
-    <mergeCell ref="CU2:CY2"/>
-    <mergeCell ref="CZ2:DD2"/>
-    <mergeCell ref="AW2:BA2"/>
-    <mergeCell ref="BB2:BF2"/>
-    <mergeCell ref="CP3:CT3"/>
-    <mergeCell ref="CU3:CY3"/>
-    <mergeCell ref="CZ3:DD3"/>
-    <mergeCell ref="DE3:DI3"/>
-    <mergeCell ref="DJ3:DN3"/>
-    <mergeCell ref="DO3:DS3"/>
-    <mergeCell ref="BL3:BP3"/>
-    <mergeCell ref="BQ3:BU3"/>
-    <mergeCell ref="BV3:BZ3"/>
-    <mergeCell ref="CA3:CE3"/>
-    <mergeCell ref="CF3:CJ3"/>
-    <mergeCell ref="CK3:CO3"/>
-    <mergeCell ref="EX3:FB3"/>
-    <mergeCell ref="FC3:FG3"/>
-    <mergeCell ref="FH3:FL3"/>
-    <mergeCell ref="FM3:FQ3"/>
-    <mergeCell ref="FR3:FV3"/>
-    <mergeCell ref="FW3:GA3"/>
-    <mergeCell ref="DT3:DX3"/>
-    <mergeCell ref="DY3:EC3"/>
-    <mergeCell ref="ED3:EH3"/>
-    <mergeCell ref="EI3:EM3"/>
-    <mergeCell ref="EN3:ER3"/>
-    <mergeCell ref="ES3:EW3"/>
-    <mergeCell ref="IJ3:IN3"/>
-    <mergeCell ref="HF3:HJ3"/>
-    <mergeCell ref="HK3:HO3"/>
-    <mergeCell ref="HP3:HT3"/>
-    <mergeCell ref="HU3:HY3"/>
-    <mergeCell ref="HZ3:ID3"/>
-    <mergeCell ref="IE3:II3"/>
-    <mergeCell ref="GB3:GF3"/>
-    <mergeCell ref="GG3:GK3"/>
-    <mergeCell ref="GL3:GP3"/>
-    <mergeCell ref="GQ3:GU3"/>
-    <mergeCell ref="GV3:GZ3"/>
-    <mergeCell ref="HA3:HE3"/>
+    <mergeCell ref="GV1:GZ1"/>
+    <mergeCell ref="HA1:HE1"/>
+    <mergeCell ref="EX1:FB1"/>
+    <mergeCell ref="FC1:FG1"/>
+    <mergeCell ref="FH1:FL1"/>
+    <mergeCell ref="FM1:FQ1"/>
+    <mergeCell ref="FR1:FV1"/>
+    <mergeCell ref="FW1:GA1"/>
+    <mergeCell ref="DT1:DX1"/>
+    <mergeCell ref="DY1:EC1"/>
+    <mergeCell ref="ED1:EH1"/>
+    <mergeCell ref="EI1:EM1"/>
+    <mergeCell ref="EN1:ER1"/>
+    <mergeCell ref="ES1:EW1"/>
+    <mergeCell ref="CP1:CT1"/>
+    <mergeCell ref="CU1:CY1"/>
+    <mergeCell ref="CZ1:DD1"/>
+    <mergeCell ref="DE1:DI1"/>
+    <mergeCell ref="DJ1:DN1"/>
+    <mergeCell ref="DO1:DS1"/>
+    <mergeCell ref="BL1:BP1"/>
+    <mergeCell ref="BQ1:BU1"/>
+    <mergeCell ref="BV1:BZ1"/>
+    <mergeCell ref="CA1:CE1"/>
+    <mergeCell ref="CF1:CJ1"/>
+    <mergeCell ref="CK1:CO1"/>
+    <mergeCell ref="AH1:AL1"/>
+    <mergeCell ref="AM1:AQ1"/>
+    <mergeCell ref="AR1:AV1"/>
+    <mergeCell ref="AW1:BA1"/>
+    <mergeCell ref="BB1:BF1"/>
+    <mergeCell ref="BG1:BK1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="N1:R1"/>
+    <mergeCell ref="S1:W1"/>
+    <mergeCell ref="X1:AB1"/>
+    <mergeCell ref="AC1:AG1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
